--- a/Asset Allocation/History_data.xlsx
+++ b/Asset Allocation/History_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="440" windowWidth="27740" windowHeight="17560"/>
+    <workbookView xWindow="1060" yWindow="440" windowWidth="27740" windowHeight="13460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,8 +136,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -152,12 +158,18 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -459,11 +471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G160" sqref="G160"/>
+      <selection pane="bottomLeft" activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4566,6 +4578,32 @@
         <v>5.8516430000000001E-2</v>
       </c>
     </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>42825</v>
+      </c>
+      <c r="B160">
+        <v>3.0374365707390716E-3</v>
+      </c>
+      <c r="C160">
+        <v>6.7697219611151382E-4</v>
+      </c>
+      <c r="D160">
+        <v>9.3697588888685956E-4</v>
+      </c>
+      <c r="E160">
+        <v>-7.6457027757731444E-3</v>
+      </c>
+      <c r="F160">
+        <v>1.5621255117260535E-2</v>
+      </c>
+      <c r="G160">
+        <v>-3.8923017041514463E-4</v>
+      </c>
+      <c r="H160">
+        <v>-1.4263917964730477E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Asset Allocation/History_data.xlsx
+++ b/Asset Allocation/History_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="440" windowWidth="27740" windowHeight="13460"/>
+    <workbookView xWindow="3300" yWindow="-20640" windowWidth="27880" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,11 +479,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E168" sqref="E168"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4638,6 +4638,32 @@
         <v>2.7244769999998919E-3</v>
       </c>
     </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>42886</v>
+      </c>
+      <c r="B162">
+        <v>1.54E-2</v>
+      </c>
+      <c r="C162">
+        <v>-6.2399999999999997E-2</v>
+      </c>
+      <c r="D162">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="E162">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="F162">
+        <v>-6.4999999999999997E-3</v>
+      </c>
+      <c r="G162">
+        <v>-1.5699999999999999E-2</v>
+      </c>
+      <c r="H162">
+        <v>2.8E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Asset Allocation/History_data.xlsx
+++ b/Asset Allocation/History_data.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="-20640" windowWidth="27880" windowHeight="17560"/>
+    <workbookView xWindow="1540" yWindow="2780" windowWidth="14400" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,13 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>money</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bond</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -54,6 +50,18 @@
   </si>
   <si>
     <t>gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bond_enterprise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bond_whole</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bond_summary</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -136,8 +144,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -162,7 +174,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="19">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -171,6 +183,8 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -178,6 +192,8 @@
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -479,11 +495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:J163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B163" sqref="B163"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -491,30 +507,36 @@
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>38016</v>
       </c>
@@ -536,8 +558,11 @@
       <c r="H2">
         <v>1.2371777140009999E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>-4.1199999999999995E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>38044</v>
       </c>
@@ -559,8 +584,11 @@
       <c r="H3">
         <v>1.456584543571E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>5.8809999999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>38077</v>
       </c>
@@ -582,8 +610,11 @@
       <c r="H4">
         <v>1.6379977882172701E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>-3.1840000000000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>38107</v>
       </c>
@@ -605,8 +636,11 @@
       <c r="H5">
         <v>1.5960030676964701E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>-1.3328E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>38138</v>
       </c>
@@ -628,8 +662,11 @@
       <c r="H6">
         <v>1.7708812070647E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>3.0830000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>38168</v>
       </c>
@@ -651,8 +688,11 @@
       <c r="H7">
         <v>1.8587990395442201E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>-9.7000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>38198</v>
       </c>
@@ -674,8 +714,11 @@
       <c r="H8">
         <v>1.94384359616762E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>5.9899999999999997E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>38230</v>
       </c>
@@ -697,8 +740,11 @@
       <c r="H9">
         <v>2.1855712331280098E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>1.204E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>38260</v>
       </c>
@@ -720,8 +766,11 @@
       <c r="H10">
         <v>2.1611747913910001E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>-1.145E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>38289</v>
       </c>
@@ -743,8 +792,11 @@
       <c r="H11">
         <v>2.0397090159467398E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>3.1730000000000005E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>38321</v>
       </c>
@@ -766,8 +818,11 @@
       <c r="H12">
         <v>2.4272359079469102E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>-1.8859999999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>38352</v>
       </c>
@@ -789,8 +844,11 @@
       <c r="H13">
         <v>2.6698373957871899E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>5.3930000000000002E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>38383</v>
       </c>
@@ -815,8 +873,11 @@
       <c r="H14">
         <v>2.66180709104846E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>1.1705E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>38411</v>
       </c>
@@ -841,8 +902,11 @@
       <c r="H15">
         <v>2.3193760032227399E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>7.6100000000000004E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>38442</v>
       </c>
@@ -867,8 +931,11 @@
       <c r="H16">
         <v>2.9589451077029999E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>1.5830999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>38471</v>
       </c>
@@ -893,8 +960,11 @@
       <c r="H17">
         <v>2.3167281011411398E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>8.3239999999999998E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>38503</v>
       </c>
@@ -919,8 +989,11 @@
       <c r="H18">
         <v>1.8834049822236099E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>1.0492E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>38533</v>
       </c>
@@ -945,8 +1018,11 @@
       <c r="H19">
         <v>1.71330697066763E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>1.5267999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>38562</v>
       </c>
@@ -971,8 +1047,11 @@
       <c r="H20">
         <v>1.5439020714012E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>9.58E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>38595</v>
       </c>
@@ -997,8 +1076,11 @@
       <c r="H21">
         <v>1.7170135133419699E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>2.3699999999999999E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>38625</v>
       </c>
@@ -1023,8 +1105,11 @@
       <c r="H22">
         <v>1.5497474880625799E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>7.6259999999999991E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>38656</v>
       </c>
@@ -1049,8 +1134,11 @@
       <c r="H23">
         <v>1.5124861488560199E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>5.3740000000000003E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>38686</v>
       </c>
@@ -1075,8 +1163,11 @@
       <c r="H24">
         <v>1.5793217694302099E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>-5.692E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>38716</v>
       </c>
@@ -1101,8 +1192,11 @@
       <c r="H25">
         <v>1.6079814534253299E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>8.2420000000000011E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>38742</v>
       </c>
@@ -1127,8 +1221,11 @@
       <c r="H26">
         <v>1.37419999999988E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>6.3170000000000006E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>38776</v>
       </c>
@@ -1153,8 +1250,11 @@
       <c r="H27">
         <v>1.69836610529805E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>9.2700000000000009E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>38807</v>
       </c>
@@ -1179,8 +1279,11 @@
       <c r="H28">
         <v>1.55721172965251E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>4.1949999999999999E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>38835</v>
       </c>
@@ -1205,8 +1308,11 @@
       <c r="H29">
         <v>1.4373352203169701E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>-1.188E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>38868</v>
       </c>
@@ -1231,8 +1337,11 @@
       <c r="H30">
         <v>1.61647040511337E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>1.8990000000000001E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>38898</v>
       </c>
@@ -1257,8 +1366,11 @@
       <c r="H31">
         <v>1.5260385159499E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>-6.5390000000000005E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>38929</v>
       </c>
@@ -1283,8 +1395,11 @@
       <c r="H32">
         <v>1.6131860945558501E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <v>-9.5399999999999999E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>38960</v>
       </c>
@@ -1309,8 +1424,11 @@
       <c r="H33">
         <v>1.5237323062609099E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <v>4.6960000000000005E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>38989</v>
       </c>
@@ -1335,8 +1453,11 @@
       <c r="H34">
         <v>1.4785462144217801E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <v>8.0479999999999996E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>39021</v>
       </c>
@@ -1361,8 +1482,11 @@
       <c r="H35">
         <v>1.64708850477213E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <v>5.8599999999999998E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>39051</v>
       </c>
@@ -1387,8 +1511,11 @@
       <c r="H36">
         <v>1.61316638379061E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <v>3.5630000000000002E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>39080</v>
       </c>
@@ -1413,8 +1540,14 @@
       <c r="H37">
         <v>1.6445825902120499E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>-4.4840000000000001E-3</v>
+      </c>
+      <c r="J37">
+        <v>8.83E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>39113</v>
       </c>
@@ -1439,8 +1572,14 @@
       <c r="H38">
         <v>1.9532011013931902E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>-6.0499999999999996E-4</v>
+      </c>
+      <c r="J38">
+        <v>2.2529999999999998E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>39141</v>
       </c>
@@ -1465,8 +1604,14 @@
       <c r="H39">
         <v>1.8128448979783901E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>5.8170000000000001E-3</v>
+      </c>
+      <c r="J39">
+        <v>4.7800000000000002E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39171</v>
       </c>
@@ -1491,8 +1636,14 @@
       <c r="H40">
         <v>1.76664020487083E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>-2.4460000000000003E-3</v>
+      </c>
+      <c r="J40">
+        <v>-2.163E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>39202</v>
       </c>
@@ -1517,8 +1668,14 @@
       <c r="H41">
         <v>2.0396488528353599E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>-2.261E-3</v>
+      </c>
+      <c r="J41">
+        <v>-1.2770000000000001E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>39233</v>
       </c>
@@ -1543,8 +1700,14 @@
       <c r="H42">
         <v>1.90214807922784E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>-8.097E-3</v>
+      </c>
+      <c r="J42">
+        <v>-7.5290000000000001E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>39262</v>
       </c>
@@ -1569,8 +1732,14 @@
       <c r="H43">
         <v>2.1020208800157599E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>-3.8297999999999999E-2</v>
+      </c>
+      <c r="J43">
+        <v>-8.8229999999999992E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>39294</v>
       </c>
@@ -1595,8 +1764,14 @@
       <c r="H44">
         <v>2.91051985086099E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>-1.3039E-2</v>
+      </c>
+      <c r="J44">
+        <v>3.421E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>39325</v>
       </c>
@@ -1621,8 +1796,14 @@
       <c r="H45">
         <v>2.0539907522532101E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>4.0759999999999998E-3</v>
+      </c>
+      <c r="J45">
+        <v>4.8920000000000005E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>39353</v>
       </c>
@@ -1647,8 +1828,14 @@
       <c r="H46">
         <v>5.3781035596269797E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>-1.0494000000000002E-2</v>
+      </c>
+      <c r="J46">
+        <v>-2.1290000000000002E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>39386</v>
       </c>
@@ -1673,8 +1860,14 @@
       <c r="H47">
         <v>4.6209183840033603E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>-2.702E-3</v>
+      </c>
+      <c r="J47">
+        <v>3.8199999999999996E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>39416</v>
       </c>
@@ -1699,8 +1892,14 @@
       <c r="H48">
         <v>3.0495567791422001E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>-1.3592E-2</v>
+      </c>
+      <c r="J48">
+        <v>-2.4550000000000002E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>39444</v>
       </c>
@@ -1725,8 +1924,14 @@
       <c r="H49">
         <v>3.4764222095382499E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>-8.8000000000000011E-5</v>
+      </c>
+      <c r="J49">
+        <v>5.306E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>39478</v>
       </c>
@@ -1751,8 +1956,14 @@
       <c r="H50">
         <v>3.1210078765397898E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>1.0858000000000001E-2</v>
+      </c>
+      <c r="J50">
+        <v>1.0107E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>39507</v>
       </c>
@@ -1777,8 +1988,14 @@
       <c r="H51">
         <v>2.24257272031925E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>1.2171000000000001E-2</v>
+      </c>
+      <c r="J51">
+        <v>8.1860000000000006E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>39538</v>
       </c>
@@ -1803,8 +2020,14 @@
       <c r="H52">
         <v>2.2160199103658002E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>1.2998000000000001E-2</v>
+      </c>
+      <c r="J52">
+        <v>6.5550000000000001E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>39568</v>
       </c>
@@ -1829,8 +2052,14 @@
       <c r="H53">
         <v>2.4356059121024599E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>2.8830000000000001E-3</v>
+      </c>
+      <c r="J53">
+        <v>1.8509999999999998E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>39598</v>
       </c>
@@ -1855,8 +2084,14 @@
       <c r="H54">
         <v>2.5823662778388101E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>-2.5380000000000003E-3</v>
+      </c>
+      <c r="J54">
+        <v>2.6400000000000002E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>39629</v>
       </c>
@@ -1881,8 +2116,14 @@
       <c r="H55">
         <v>2.5210460695499499E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <v>-9.7650000000000011E-3</v>
+      </c>
+      <c r="J55">
+        <v>-6.5480000000000009E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>39660</v>
       </c>
@@ -1907,8 +2148,14 @@
       <c r="H56">
         <v>2.5432347570304402E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>-3.5820000000000001E-3</v>
+      </c>
+      <c r="J56">
+        <v>3.0799999999999998E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>39689</v>
       </c>
@@ -1933,8 +2180,14 @@
       <c r="H57">
         <v>2.5826859280562199E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <v>1.0121999999999999E-2</v>
+      </c>
+      <c r="J57">
+        <v>9.9810000000000003E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>39717</v>
       </c>
@@ -1959,8 +2212,14 @@
       <c r="H58">
         <v>2.42388293818885E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>4.3162000000000006E-2</v>
+      </c>
+      <c r="J58">
+        <v>2.4468E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>39752</v>
       </c>
@@ -1985,8 +2244,14 @@
       <c r="H59">
         <v>3.7279888243884102E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <v>6.0468000000000001E-2</v>
+      </c>
+      <c r="J59">
+        <v>2.8858000000000002E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>39780</v>
       </c>
@@ -2011,8 +2276,14 @@
       <c r="H60">
         <v>4.4021625229162496E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>1.1460999999999999E-2</v>
+      </c>
+      <c r="J60">
+        <v>1.0091000000000001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>39813</v>
       </c>
@@ -2037,8 +2308,14 @@
       <c r="H61">
         <v>4.1969531067058696E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <v>1.6670000000000001E-2</v>
+      </c>
+      <c r="J61">
+        <v>1.6316000000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>39836</v>
       </c>
@@ -2063,8 +2340,14 @@
       <c r="H62">
         <v>1.0393970451780801E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <v>-1.1406000000000001E-2</v>
+      </c>
+      <c r="J62">
+        <v>-7.0959999999999999E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>39871</v>
       </c>
@@ -2089,8 +2372,14 @@
       <c r="H63">
         <v>1.3557215479849101E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <v>5.1520000000000003E-3</v>
+      </c>
+      <c r="J63">
+        <v>-1.9750000000000002E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>39903</v>
       </c>
@@ -2115,8 +2404,14 @@
       <c r="H64">
         <v>1.3624850615139301E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <v>1.696E-3</v>
+      </c>
+      <c r="J64">
+        <v>1.6200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>39933</v>
       </c>
@@ -2141,8 +2436,14 @@
       <c r="H65">
         <v>9.1125932841795698E-4</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <v>-4.4250000000000001E-3</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>39960</v>
       </c>
@@ -2167,8 +2468,14 @@
       <c r="H66">
         <v>9.6300187151498995E-4</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <v>7.0750000000000006E-3</v>
+      </c>
+      <c r="J66">
+        <v>4.4099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>39994</v>
       </c>
@@ -2193,8 +2500,14 @@
       <c r="H67">
         <v>1.3956521596407701E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <v>-5.22E-4</v>
+      </c>
+      <c r="J67">
+        <v>-1.5040000000000001E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>40025</v>
       </c>
@@ -2219,8 +2532,14 @@
       <c r="H68">
         <v>1.34289763947582E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <v>-7.0369999999999999E-3</v>
+      </c>
+      <c r="J68">
+        <v>-6.8730000000000006E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>40056</v>
       </c>
@@ -2245,8 +2564,14 @@
       <c r="H69">
         <v>1.02764670632016E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <v>5.0700000000000007E-4</v>
+      </c>
+      <c r="J69">
+        <v>3.1259999999999999E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>40086</v>
       </c>
@@ -2271,8 +2596,14 @@
       <c r="H70">
         <v>1.20836414728531E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <v>-1.1933000000000001E-2</v>
+      </c>
+      <c r="J70">
+        <v>-3.6299999999999999E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>40116</v>
       </c>
@@ -2297,8 +2628,14 @@
       <c r="H71">
         <v>9.9359683050681503E-4</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <v>-3.4150000000000001E-3</v>
+      </c>
+      <c r="J71">
+        <v>-1.472E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>40147</v>
       </c>
@@ -2323,8 +2660,14 @@
       <c r="H72">
         <v>1.1748898076269199E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <v>8.3949999999999997E-3</v>
+      </c>
+      <c r="J72">
+        <v>4.6519999999999999E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>40178</v>
       </c>
@@ -2349,8 +2692,14 @@
       <c r="H73">
         <v>1.28667946344785E-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <v>1.1233999999999999E-2</v>
+      </c>
+      <c r="J73">
+        <v>2.3480000000000003E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>40207</v>
       </c>
@@ -2375,8 +2724,14 @@
       <c r="H74">
         <v>1.0134092269065099E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <v>1.1027E-2</v>
+      </c>
+      <c r="J74">
+        <v>4.176E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>40235</v>
       </c>
@@ -2401,8 +2756,14 @@
       <c r="H75">
         <v>1.0337004035621E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <v>1.0676000000000001E-2</v>
+      </c>
+      <c r="J75">
+        <v>7.4580000000000002E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>40268</v>
       </c>
@@ -2427,8 +2788,14 @@
       <c r="H76">
         <v>1.5170970055991E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <v>1.4239999999999999E-2</v>
+      </c>
+      <c r="J76">
+        <v>5.2449999999999997E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>40298</v>
       </c>
@@ -2453,8 +2820,14 @@
       <c r="H77">
         <v>1.3319022344298001E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <v>8.9739999999999993E-3</v>
+      </c>
+      <c r="J77">
+        <v>5.6689999999999996E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>40329</v>
       </c>
@@ -2479,8 +2852,14 @@
       <c r="H78">
         <v>1.4316247352650401E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <v>8.5040000000000011E-3</v>
+      </c>
+      <c r="J78">
+        <v>5.1160000000000008E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>40359</v>
       </c>
@@ -2505,8 +2884,14 @@
       <c r="H79">
         <v>1.33020576993936E-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <v>5.3509999999999999E-3</v>
+      </c>
+      <c r="J79">
+        <v>4.0300000000000004E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>40389</v>
       </c>
@@ -2531,8 +2916,14 @@
       <c r="H80">
         <v>1.5783340939366001E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <v>1.447E-2</v>
+      </c>
+      <c r="J80">
+        <v>5.6030000000000003E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>40421</v>
       </c>
@@ -2557,8 +2948,14 @@
       <c r="H81">
         <v>1.6658824760451599E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <v>8.3230000000000005E-3</v>
+      </c>
+      <c r="J81">
+        <v>4.326E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>40451</v>
       </c>
@@ -2583,8 +2980,14 @@
       <c r="H82">
         <v>1.661680908432E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <v>-4.2090000000000001E-3</v>
+      </c>
+      <c r="J82">
+        <v>-9.8999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>40480</v>
       </c>
@@ -2609,8 +3012,14 @@
       <c r="H83">
         <v>1.8236648913969599E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <v>-1.2119999999999999E-2</v>
+      </c>
+      <c r="J83">
+        <v>-7.9659999999999991E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>40512</v>
       </c>
@@ -2635,8 +3044,14 @@
       <c r="H84">
         <v>1.6672237151122999E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <v>-2.4243999999999998E-2</v>
+      </c>
+      <c r="J84">
+        <v>-1.4539999999999999E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>40543</v>
       </c>
@@ -2661,8 +3076,14 @@
       <c r="H85">
         <v>1.9845965976410499E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85">
+        <v>5.672E-3</v>
+      </c>
+      <c r="J85">
+        <v>6.0609999999999995E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>40574</v>
       </c>
@@ -2687,8 +3108,14 @@
       <c r="H86">
         <v>2.54403304898565E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86">
+        <v>-6.3E-5</v>
+      </c>
+      <c r="J86">
+        <v>-4.7399999999999997E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>40602</v>
       </c>
@@ -2713,8 +3140,14 @@
       <c r="H87">
         <v>2.7066724254059E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <v>-4.5000000000000005E-3</v>
+      </c>
+      <c r="J87">
+        <v>2.617E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>40633</v>
       </c>
@@ -2739,8 +3172,14 @@
       <c r="H88">
         <v>2.57171668183886E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <v>4.5209999999999998E-3</v>
+      </c>
+      <c r="J88">
+        <v>4.5030000000000001E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>40662</v>
       </c>
@@ -2765,8 +3204,14 @@
       <c r="H89">
         <v>2.34351794848209E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89">
+        <v>7.5300000000000002E-3</v>
+      </c>
+      <c r="J89">
+        <v>4.248E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>40694</v>
       </c>
@@ -2791,8 +3236,14 @@
       <c r="H90">
         <v>2.73607756272254E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <v>6.8510000000000003E-3</v>
+      </c>
+      <c r="J90">
+        <v>3.679E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>40724</v>
       </c>
@@ -2817,8 +3268,14 @@
       <c r="H91">
         <v>2.8117194690686601E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91">
+        <v>-2.9370000000000004E-3</v>
+      </c>
+      <c r="J91">
+        <v>-2.99E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>40753</v>
       </c>
@@ -2843,8 +3300,14 @@
       <c r="H92">
         <v>2.9604933030693602E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <v>-9.5989999999999999E-3</v>
+      </c>
+      <c r="J92">
+        <v>-5.7340000000000004E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>40786</v>
       </c>
@@ -2869,8 +3332,14 @@
       <c r="H93">
         <v>3.1134409039368402E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <v>-4.2030000000000001E-3</v>
+      </c>
+      <c r="J93">
+        <v>5.8600000000000004E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>40816</v>
       </c>
@@ -2895,8 +3364,14 @@
       <c r="H94">
         <v>2.7228435328598998E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94">
+        <v>-2.2040000000000002E-3</v>
+      </c>
+      <c r="J94">
+        <v>8.3340000000000011E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>40847</v>
       </c>
@@ -2921,8 +3396,14 @@
       <c r="H95">
         <v>3.3251608138826802E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95">
+        <v>1.9817999999999999E-2</v>
+      </c>
+      <c r="J95">
+        <v>1.4095999999999999E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>40877</v>
       </c>
@@ -2947,8 +3428,14 @@
       <c r="H96">
         <v>3.6108173374853601E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <v>1.0570999999999999E-2</v>
+      </c>
+      <c r="J96">
+        <v>1.2044999999999998E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>40907</v>
       </c>
@@ -2973,8 +3460,14 @@
       <c r="H97">
         <v>3.4775171788952201E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97">
+        <v>1.5309E-2</v>
+      </c>
+      <c r="J97">
+        <v>1.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>40939</v>
       </c>
@@ -2999,8 +3492,14 @@
       <c r="H98">
         <v>4.0082394542728696E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98">
+        <v>1.9591000000000001E-2</v>
+      </c>
+      <c r="J98">
+        <v>7.7280000000000005E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>40968</v>
       </c>
@@ -3025,8 +3524,14 @@
       <c r="H99">
         <v>3.8573635634560101E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99">
+        <v>-2.3939999999999999E-3</v>
+      </c>
+      <c r="J99">
+        <v>-2.4889999999999999E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>40998</v>
       </c>
@@ -3051,8 +3556,14 @@
       <c r="H100">
         <v>3.7050373975378E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100">
+        <v>2.666E-3</v>
+      </c>
+      <c r="J100">
+        <v>3.4220000000000001E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>41026</v>
       </c>
@@ -3077,8 +3588,14 @@
       <c r="H101">
         <v>3.21543353842402E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101">
+        <v>8.1349999999999999E-3</v>
+      </c>
+      <c r="J101">
+        <v>2.2339999999999999E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>41060</v>
       </c>
@@ -3103,8 +3620,14 @@
       <c r="H102">
         <v>3.7794124481889098E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102">
+        <v>2.2457999999999999E-2</v>
+      </c>
+      <c r="J102">
+        <v>1.5789000000000001E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>41089</v>
       </c>
@@ -3129,8 +3652,14 @@
       <c r="H103">
         <v>3.36269291560631E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103">
+        <v>7.8480000000000008E-3</v>
+      </c>
+      <c r="J103">
+        <v>3.3769999999999998E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>41121</v>
       </c>
@@ -3155,8 +3684,14 @@
       <c r="H104">
         <v>2.9771316385871498E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104">
+        <v>5.2829999999999995E-3</v>
+      </c>
+      <c r="J104">
+        <v>3.3270000000000001E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>41152</v>
       </c>
@@ -3181,8 +3716,14 @@
       <c r="H105">
         <v>2.6328421226631299E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105">
+        <v>-6.5510000000000004E-3</v>
+      </c>
+      <c r="J105">
+        <v>-4.1970000000000002E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>41180</v>
       </c>
@@ -3207,8 +3748,14 @@
       <c r="H106">
         <v>2.4516341655211899E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106">
+        <v>1.2640000000000001E-3</v>
+      </c>
+      <c r="J106">
+        <v>-7.6899999999999994E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>41213</v>
       </c>
@@ -3233,8 +3780,14 @@
       <c r="H107">
         <v>3.0558827198887699E-3</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I107">
+        <v>6.979E-3</v>
+      </c>
+      <c r="J107">
+        <v>1.9729999999999999E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>41243</v>
       </c>
@@ -3259,8 +3812,14 @@
       <c r="H108">
         <v>2.79855537554208E-3</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108">
+        <v>4.6169999999999996E-3</v>
+      </c>
+      <c r="J108">
+        <v>3.0919999999999997E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>41274</v>
       </c>
@@ -3285,8 +3844,14 @@
       <c r="H109">
         <v>3.1811368884286902E-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109">
+        <v>2.3969999999999998E-3</v>
+      </c>
+      <c r="J109">
+        <v>2.4099999999999998E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>41305</v>
       </c>
@@ -3311,8 +3876,14 @@
       <c r="H110">
         <v>3.1140537657210498E-3</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110">
+        <v>9.6089999999999995E-3</v>
+      </c>
+      <c r="J110">
+        <v>5.4800000000000005E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>41333</v>
       </c>
@@ -3337,8 +3908,14 @@
       <c r="H111">
         <v>2.68429036843387E-3</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I111">
+        <v>9.0840000000000001E-3</v>
+      </c>
+      <c r="J111">
+        <v>4.9779999999999998E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>41362</v>
       </c>
@@ -3363,8 +3940,14 @@
       <c r="H112">
         <v>2.85620657649988E-3</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112">
+        <v>4.1799999999999997E-3</v>
+      </c>
+      <c r="J112">
+        <v>3.4910000000000002E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>41390</v>
       </c>
@@ -3389,8 +3972,14 @@
       <c r="H113">
         <v>2.5208163398813301E-3</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113">
+        <v>6.9280000000000001E-3</v>
+      </c>
+      <c r="J113">
+        <v>6.7600000000000004E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>41425</v>
       </c>
@@ -3415,8 +4004,14 @@
       <c r="H114">
         <v>3.2057613981042502E-3</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114">
+        <v>1.1257E-2</v>
+      </c>
+      <c r="J114">
+        <v>5.6249999999999998E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>41453</v>
       </c>
@@ -3441,8 +4036,14 @@
       <c r="H115">
         <v>2.6871063127851301E-3</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I115">
+        <v>-3.0380000000000003E-3</v>
+      </c>
+      <c r="J115">
+        <v>-3.1310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>41486</v>
       </c>
@@ -3467,8 +4068,14 @@
       <c r="H116">
         <v>3.58169412915976E-3</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I116">
+        <v>-2.9230000000000003E-3</v>
+      </c>
+      <c r="J116">
+        <v>-3.202E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>41516</v>
       </c>
@@ -3493,8 +4100,14 @@
       <c r="H117">
         <v>3.1735597075157598E-3</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I117">
+        <v>-4.0100000000000005E-3</v>
+      </c>
+      <c r="J117">
+        <v>-7.045E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>41547</v>
       </c>
@@ -3519,8 +4132,14 @@
       <c r="H118">
         <v>3.4231128580173298E-3</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I118">
+        <v>2.895E-3</v>
+      </c>
+      <c r="J118">
+        <v>1.2999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>41578</v>
       </c>
@@ -3545,8 +4164,14 @@
       <c r="H119">
         <v>3.6923768471919202E-3</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I119">
+        <v>-3.6280000000000001E-3</v>
+      </c>
+      <c r="J119">
+        <v>-5.8620000000000009E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>41607</v>
       </c>
@@ -3571,8 +4196,14 @@
       <c r="H120">
         <v>3.45486680368845E-3</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I120">
+        <v>-1.2738000000000001E-2</v>
+      </c>
+      <c r="J120">
+        <v>-8.9800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>41639</v>
       </c>
@@ -3597,8 +4228,14 @@
       <c r="H121">
         <v>4.3674734803502702E-3</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I121">
+        <v>1.07E-4</v>
+      </c>
+      <c r="J121">
+        <v>-2.6490000000000003E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>41669</v>
       </c>
@@ -3623,8 +4260,14 @@
       <c r="H122">
         <v>4.5071853103848501E-3</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I122">
+        <v>6.3610000000000003E-3</v>
+      </c>
+      <c r="J122">
+        <v>9.6819999999999996E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>41698</v>
       </c>
@@ -3649,8 +4292,14 @@
       <c r="H123">
         <v>4.1472797794437398E-3</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I123">
+        <v>2.4018999999999999E-2</v>
+      </c>
+      <c r="J123">
+        <v>1.6111E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>41729</v>
       </c>
@@ -3675,8 +4324,14 @@
       <c r="H124">
         <v>3.88627531192465E-3</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I124">
+        <v>-8.740000000000001E-4</v>
+      </c>
+      <c r="J124">
+        <v>-1.348E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>41759</v>
       </c>
@@ -3701,8 +4356,14 @@
       <c r="H125">
         <v>3.6361356654754898E-3</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I125">
+        <v>1.3564E-2</v>
+      </c>
+      <c r="J125">
+        <v>1.0048E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>41789</v>
       </c>
@@ -3727,8 +4388,14 @@
       <c r="H126">
         <v>3.5370728964956299E-3</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I126">
+        <v>1.4724999999999999E-2</v>
+      </c>
+      <c r="J126">
+        <v>1.5143999999999999E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>41820</v>
       </c>
@@ -3753,8 +4420,14 @@
       <c r="H127">
         <v>3.8825131297413099E-3</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I127">
+        <v>1.0883E-2</v>
+      </c>
+      <c r="J127">
+        <v>7.2840000000000005E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>41851</v>
       </c>
@@ -3779,8 +4452,14 @@
       <c r="H128">
         <v>3.6117311507937199E-3</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I128">
+        <v>2.4889999999999999E-3</v>
+      </c>
+      <c r="J128">
+        <v>-1.926E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>41880</v>
       </c>
@@ -3805,8 +4484,14 @@
       <c r="H129">
         <v>3.28210672638818E-3</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I129">
+        <v>1.0827999999999999E-2</v>
+      </c>
+      <c r="J129">
+        <v>6.9299999999999995E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>41912</v>
       </c>
@@ -3831,8 +4516,14 @@
       <c r="H130">
         <v>3.8024862410035399E-3</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I130">
+        <v>9.7739999999999997E-3</v>
+      </c>
+      <c r="J130">
+        <v>1.1428000000000001E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>41943</v>
       </c>
@@ -3857,8 +4548,14 @@
       <c r="H131">
         <v>3.5963775506291399E-3</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I131">
+        <v>2.2793000000000001E-2</v>
+      </c>
+      <c r="J131">
+        <v>1.8268E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>41971</v>
       </c>
@@ -3883,8 +4580,14 @@
       <c r="H132">
         <v>3.3619095646326702E-3</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I132">
+        <v>1.3335E-2</v>
+      </c>
+      <c r="J132">
+        <v>1.2861000000000001E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>42004</v>
       </c>
@@ -3909,8 +4612,14 @@
       <c r="H133">
         <v>3.77709072632859E-3</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I133">
+        <v>-1.6490000000000001E-2</v>
+      </c>
+      <c r="J133">
+        <v>-5.3629999999999997E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>42034</v>
       </c>
@@ -3935,8 +4644,14 @@
       <c r="H134">
         <v>3.6263219384891098E-3</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I134">
+        <v>1.3062000000000001E-2</v>
+      </c>
+      <c r="J134">
+        <v>1.0733999999999999E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>42062</v>
       </c>
@@ -3961,8 +4676,14 @@
       <c r="H135">
         <v>3.3788891240589302E-3</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I135">
+        <v>9.9380000000000007E-3</v>
+      </c>
+      <c r="J135">
+        <v>8.6580000000000008E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>42094</v>
       </c>
@@ -3987,8 +4708,14 @@
       <c r="H136">
         <v>4.0304658013092798E-3</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I136">
+        <v>-8.0309999999999999E-3</v>
+      </c>
+      <c r="J136">
+        <v>-1.1854E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>42124</v>
       </c>
@@ -4013,8 +4740,14 @@
       <c r="H137">
         <v>3.47404595044787E-3</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I137">
+        <v>1.7231E-2</v>
+      </c>
+      <c r="J137">
+        <v>1.512E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>42153</v>
       </c>
@@ -4039,8 +4772,14 @@
       <c r="H138">
         <v>3.2451752319853102E-3</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I138">
+        <v>1.0473E-2</v>
+      </c>
+      <c r="J138">
+        <v>5.4619999999999998E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>42185</v>
       </c>
@@ -4065,8 +4804,14 @@
       <c r="H139">
         <v>3.0632550998352902E-3</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I139">
+        <v>2.8050000000000002E-3</v>
+      </c>
+      <c r="J139">
+        <v>2.7569999999999999E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>42216</v>
       </c>
@@ -4091,8 +4836,14 @@
       <c r="H140">
         <v>2.6452274449779698E-3</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I140">
+        <v>1.4905999999999999E-2</v>
+      </c>
+      <c r="J140">
+        <v>9.4369999999999992E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>42247</v>
       </c>
@@ -4117,8 +4868,14 @@
       <c r="H141">
         <v>2.3195838088603299E-3</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I141">
+        <v>6.7749999999999998E-3</v>
+      </c>
+      <c r="J141">
+        <v>6.6949999999999996E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>42277</v>
       </c>
@@ -4143,8 +4900,14 @@
       <c r="H142">
         <v>2.3363967734064701E-3</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I142">
+        <v>6.8369999999999993E-3</v>
+      </c>
+      <c r="J142">
+        <v>4.7739999999999996E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>42307</v>
       </c>
@@ -4169,8 +4932,14 @@
       <c r="H143">
         <v>2.3678328796832302E-3</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I143">
+        <v>1.5904000000000001E-2</v>
+      </c>
+      <c r="J143">
+        <v>1.1198E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>42338</v>
       </c>
@@ -4195,8 +4964,14 @@
       <c r="H144">
         <v>2.2960084775696101E-3</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I144">
+        <v>-1.09E-3</v>
+      </c>
+      <c r="J144">
+        <v>8.3000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>42369</v>
       </c>
@@ -4221,8 +4996,14 @@
       <c r="H145">
         <v>2.8414096916298298E-3</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I145">
+        <v>1.6316000000000001E-2</v>
+      </c>
+      <c r="J145">
+        <v>1.5111000000000001E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>42398</v>
       </c>
@@ -4247,8 +5028,14 @@
       <c r="H146">
         <v>2.4160425223485001E-3</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I146">
+        <v>4.5339999999999998E-3</v>
+      </c>
+      <c r="J146">
+        <v>2.0150000000000003E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>42429</v>
       </c>
@@ -4273,8 +5060,14 @@
       <c r="H147">
         <v>2.2349306514164399E-3</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I147">
+        <v>5.6430000000000004E-3</v>
+      </c>
+      <c r="J147">
+        <v>2.9949999999999998E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>42460</v>
       </c>
@@ -4299,8 +5092,14 @@
       <c r="H148">
         <v>2.2226594667074098E-3</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I148">
+        <v>6.7010000000000004E-3</v>
+      </c>
+      <c r="J148">
+        <v>6.391E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>42489</v>
       </c>
@@ -4325,8 +5124,14 @@
       <c r="H149">
         <v>2.0141353033564799E-3</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I149">
+        <v>-1.1375999999999999E-2</v>
+      </c>
+      <c r="J149">
+        <v>-6.8479999999999999E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>42521</v>
       </c>
@@ -4351,8 +5156,14 @@
       <c r="H150">
         <v>2.1334494394253901E-3</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I150">
+        <v>8.2260000000000007E-3</v>
+      </c>
+      <c r="J150">
+        <v>4.2680000000000001E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>42551</v>
       </c>
@@ -4377,8 +5188,14 @@
       <c r="H151">
         <v>2.0202897921055602E-3</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I151">
+        <v>7.9490000000000012E-3</v>
+      </c>
+      <c r="J151">
+        <v>6.8659999999999997E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>42580</v>
       </c>
@@ -4403,8 +5220,14 @@
       <c r="H152">
         <v>2.05234936189269E-3</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I152">
+        <v>1.2242999999999999E-2</v>
+      </c>
+      <c r="J152">
+        <v>8.4240000000000009E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>42613</v>
       </c>
@@ -4429,8 +5252,14 @@
       <c r="H153">
         <v>2.2284403802053099E-3</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I153">
+        <v>6.9289999999999994E-3</v>
+      </c>
+      <c r="J153">
+        <v>4.8859999999999997E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>42643</v>
       </c>
@@ -4455,8 +5284,14 @@
       <c r="H154">
         <v>2.0435918285108801E-3</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I154">
+        <v>3.9550000000000002E-3</v>
+      </c>
+      <c r="J154">
+        <v>4.2920000000000007E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>42674</v>
       </c>
@@ -4481,8 +5316,14 @@
       <c r="H155">
         <v>2.1184158558040802E-3</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I155">
+        <v>4.1010000000000005E-3</v>
+      </c>
+      <c r="J155">
+        <v>4.3619999999999996E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>42704</v>
       </c>
@@ -4507,8 +5348,14 @@
       <c r="H156">
         <v>2.0279469724113798E-3</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I156">
+        <v>-8.6199999999999992E-3</v>
+      </c>
+      <c r="J156">
+        <v>-8.2740000000000001E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>42734</v>
       </c>
@@ -4533,8 +5380,14 @@
       <c r="H157">
         <v>2.2884440725723398E-3</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I157">
+        <v>-1.5658999999999999E-2</v>
+      </c>
+      <c r="J157">
+        <v>-1.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>42766</v>
       </c>
@@ -4559,8 +5412,14 @@
       <c r="H158">
         <v>2.2884440725723398E-3</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I158">
+        <v>3.0480000000000004E-3</v>
+      </c>
+      <c r="J158">
+        <v>-3.3570000000000002E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>42794</v>
       </c>
@@ -4585,8 +5444,14 @@
       <c r="H159">
         <v>2.8757100000000001E-3</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I159">
+        <v>-1.129E-3</v>
+      </c>
+      <c r="J159">
+        <v>2.5000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>42825</v>
       </c>
@@ -4611,8 +5476,14 @@
       <c r="H160">
         <v>3.0374365707390716E-3</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I160">
+        <v>1.5900000000000001E-3</v>
+      </c>
+      <c r="J160">
+        <v>1.11E-4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>42855</v>
       </c>
@@ -4637,8 +5508,14 @@
       <c r="H161">
         <v>2.7244769999998919E-3</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I161">
+        <v>-3.333E-3</v>
+      </c>
+      <c r="J161">
+        <v>-4.6029999999999995E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>42886</v>
       </c>
@@ -4662,6 +5539,44 @@
       </c>
       <c r="H162">
         <v>2.8E-3</v>
+      </c>
+      <c r="I162">
+        <v>-6.1829999999999993E-3</v>
+      </c>
+      <c r="J162">
+        <v>-5.4290000000000007E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B163">
+        <v>4.9790709999999905E-2</v>
+      </c>
+      <c r="C163">
+        <v>5.3922696000000103E-2</v>
+      </c>
+      <c r="D163">
+        <v>4.8138319999999624E-3</v>
+      </c>
+      <c r="E163">
+        <v>4.0501699999999641E-3</v>
+      </c>
+      <c r="F163">
+        <v>1.2028614000000104E-2</v>
+      </c>
+      <c r="G163">
+        <v>-2.1146953000000024E-2</v>
+      </c>
+      <c r="H163">
+        <v>2.9747920000000594E-3</v>
+      </c>
+      <c r="I163">
+        <v>1.6836E-2</v>
+      </c>
+      <c r="J163">
+        <v>1.2352E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Asset Allocation/History_data.xlsx
+++ b/Asset Allocation/History_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="980" yWindow="440" windowWidth="27820" windowHeight="17560"/>
+    <workbookView xWindow="-21800" yWindow="0" windowWidth="27820" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -247,965 +247,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$O$122:$O$164</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>0.954941995935596</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.992897173059302</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.981427975430365</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.984092197216293</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.015507332078058</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.027583599137555</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.054533393708311</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.074072796199162</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.026474477624371</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.06221868679858</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.075013889131253</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.064193552668697</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.068009620384976</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.104213302931166</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.096334763336523</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.172157131821042</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.163539709088039</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.126407358750176</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.102902571176775</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.002008944659303</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.969704355696528</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.051658455499312</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.036975498847613</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.025952974539473</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.947696470560447</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.931989755134696</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.003332375358825</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.011697237081919</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.013401736051327</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.013356458211563</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.058128811950088</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.083718086602257</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.090602032692176</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.071521846631094</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.08644928902823</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.077524511420028</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.125474352178219</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.155559823511805</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.164360581541457</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.181811406648295</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.213779405198132</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.21915887673575</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.2682909794682</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1505540448"/>
-        <c:axId val="1504962256"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1505540448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1504962256"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1504962256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1505540448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1495,11 +536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O164"/>
+  <dimension ref="A1:O165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R126" sqref="R126"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J165" sqref="J165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8015,15 +7056,15 @@
         <v>1.8268E-2</v>
       </c>
       <c r="L131">
-        <f t="shared" ref="L131:L164" si="6">AVERAGE(C131,D131)</f>
+        <f t="shared" ref="L131:L165" si="6">AVERAGE(C131,D131)</f>
         <v>1.88463555486513E-2</v>
       </c>
       <c r="M131">
-        <f t="shared" ref="M131:M164" si="7">AVERAGE(E131,F131)</f>
+        <f t="shared" ref="M131:M165" si="7">AVERAGE(E131,F131)</f>
         <v>3.48223067922101E-2</v>
       </c>
       <c r="N131">
-        <f t="shared" ref="N131:N164" si="8">1+M131</f>
+        <f t="shared" ref="N131:N165" si="8">1+M131</f>
         <v>1.03482230679221</v>
       </c>
       <c r="O131">
@@ -9712,12 +8753,52 @@
       <c r="O164">
         <f>PRODUCT(N$122:N164)</f>
         <v>1.2682909794682</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>42978</v>
+      </c>
+      <c r="B165">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C165">
+        <v>2.2530000000000001E-2</v>
+      </c>
+      <c r="D165">
+        <v>2.7380000000000002E-2</v>
+      </c>
+      <c r="E165">
+        <v>2.3650000000000001E-2</v>
+      </c>
+      <c r="F165">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="G165">
+        <v>2E-3</v>
+      </c>
+      <c r="H165">
+        <v>1.021E-2</v>
+      </c>
+      <c r="I165">
+        <v>3.3E-3</v>
+      </c>
+      <c r="L165">
+        <f t="shared" si="6"/>
+        <v>2.4955000000000001E-2</v>
+      </c>
+      <c r="M165">
+        <f t="shared" si="7"/>
+        <v>1.208E-2</v>
+      </c>
+      <c r="N165">
+        <f t="shared" si="8"/>
+        <v>1.0120800000000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Asset Allocation/History_data.xlsx
+++ b/Asset Allocation/History_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-21800" yWindow="0" windowWidth="27820" windowHeight="17560"/>
+    <workbookView xWindow="980" yWindow="440" windowWidth="27820" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -174,8 +174,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -211,7 +221,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="33">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -224,6 +234,11 @@
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -235,6 +250,11 @@
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -536,11 +556,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O165"/>
+  <dimension ref="A1:O167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J165" sqref="J165"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I174" sqref="I174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -559,10 +579,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -594,10 +614,10 @@
         <v>7.2475777237634306E-2</v>
       </c>
       <c r="E2">
+        <v>1.7276422764227702E-2</v>
+      </c>
+      <c r="F2">
         <v>5.6729755390054301E-2</v>
-      </c>
-      <c r="F2">
-        <v>1.7276422764227702E-2</v>
       </c>
       <c r="G2">
         <v>-2.1741278782487802E-3</v>
@@ -612,11 +632,11 @@
         <v>-4.1199999999999995E-3</v>
       </c>
       <c r="L2">
-        <f>AVERAGE(C2,D2)</f>
+        <f t="shared" ref="L2:L33" si="0">AVERAGE(C2,D2)</f>
         <v>7.2475777237634306E-2</v>
       </c>
       <c r="M2">
-        <f>AVERAGE(E2,F2)</f>
+        <f t="shared" ref="M2:M33" si="1">AVERAGE(F2,E2)</f>
         <v>3.7003089077141005E-2</v>
       </c>
       <c r="N2">
@@ -639,10 +659,10 @@
         <v>5.4845965220621497E-2</v>
       </c>
       <c r="E3">
+        <v>1.2209029908145E-2</v>
+      </c>
+      <c r="F3">
         <v>4.64777487570893E-2</v>
-      </c>
-      <c r="F3">
-        <v>1.2209029908145E-2</v>
       </c>
       <c r="G3">
         <v>-7.9231454887584995E-4</v>
@@ -657,11 +677,11 @@
         <v>5.8809999999999999E-3</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="0">AVERAGE(C3,D3)</f>
+        <f t="shared" si="0"/>
         <v>5.4845965220621497E-2</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="1">AVERAGE(E3,F3)</f>
+        <f t="shared" si="1"/>
         <v>2.934338933261715E-2</v>
       </c>
       <c r="N3">
@@ -684,10 +704,10 @@
         <v>2.4669838192970001E-2</v>
       </c>
       <c r="E4">
+        <v>-1.6358935839432601E-2</v>
+      </c>
+      <c r="F4">
         <v>-8.8110833154167303E-2</v>
-      </c>
-      <c r="F4">
-        <v>-1.6358935839432601E-2</v>
       </c>
       <c r="G4">
         <v>-2.0814748736246399E-3</v>
@@ -729,10 +749,10 @@
         <v>-0.104865576762838</v>
       </c>
       <c r="E5">
+        <v>-1.6790829419024999E-2</v>
+      </c>
+      <c r="F5">
         <v>-5.82502146799279E-2</v>
-      </c>
-      <c r="F5">
-        <v>-1.6790829419024999E-2</v>
       </c>
       <c r="G5">
         <v>-3.1386571315057697E-2</v>
@@ -774,10 +794,10 @@
         <v>-2.6521311263833801E-2</v>
       </c>
       <c r="E6">
+        <v>1.2083446220536601E-2</v>
+      </c>
+      <c r="F6">
         <v>2.13749355268711E-2</v>
-      </c>
-      <c r="F6">
-        <v>1.2083446220536601E-2</v>
       </c>
       <c r="G6">
         <v>9.2288761279735198E-4</v>
@@ -819,10 +839,10 @@
         <v>-0.106357009746934</v>
       </c>
       <c r="E7">
+        <v>1.7989078059749398E-2</v>
+      </c>
+      <c r="F7">
         <v>7.1739857553221303E-3</v>
-      </c>
-      <c r="F7">
-        <v>1.7989078059749398E-2</v>
       </c>
       <c r="G7">
         <v>3.4832496670422798E-3</v>
@@ -864,10 +884,10 @@
         <v>9.4502936990314996E-3</v>
       </c>
       <c r="E8">
+        <v>-3.4290522772693698E-2</v>
+      </c>
+      <c r="F8">
         <v>-3.8841747553058901E-3</v>
-      </c>
-      <c r="F8">
-        <v>-3.4290522772693698E-2</v>
       </c>
       <c r="G8">
         <v>8.0653394589074202E-3</v>
@@ -909,10 +929,10 @@
         <v>-3.0042886916872399E-2</v>
       </c>
       <c r="E9">
+        <v>2.28733253458224E-3</v>
+      </c>
+      <c r="F9">
         <v>5.0028476805498802E-2</v>
-      </c>
-      <c r="F9">
-        <v>2.28733253458224E-3</v>
       </c>
       <c r="G9">
         <v>-9.9250557018430996E-3</v>
@@ -954,10 +974,10 @@
         <v>5.0526056611456698E-2</v>
       </c>
       <c r="E10">
+        <v>9.3639063971599993E-3</v>
+      </c>
+      <c r="F10">
         <v>2.09917604908221E-2</v>
-      </c>
-      <c r="F10">
-        <v>9.3639063971599993E-3</v>
       </c>
       <c r="G10">
         <v>1.08428805237315E-2</v>
@@ -999,10 +1019,10 @@
         <v>-5.3208079875672103E-2</v>
       </c>
       <c r="E11">
+        <v>1.4014247519245101E-2</v>
+      </c>
+      <c r="F11">
         <v>-4.9824581193793601E-3</v>
-      </c>
-      <c r="F11">
-        <v>1.4014247519245101E-2</v>
       </c>
       <c r="G11">
         <v>4.2501517911355301E-3</v>
@@ -1044,10 +1064,10 @@
         <v>1.19156544945773E-2</v>
       </c>
       <c r="E12">
+        <v>3.8594938948858501E-2</v>
+      </c>
+      <c r="F12">
         <v>7.7013878569031996E-2</v>
-      </c>
-      <c r="F12">
-        <v>3.8594938948858501E-2</v>
       </c>
       <c r="G12">
         <v>1.91455058444179E-3</v>
@@ -1089,10 +1109,10 @@
         <v>-5.9101592564644499E-2</v>
       </c>
       <c r="E13">
+        <v>3.2458128162750698E-2</v>
+      </c>
+      <c r="F13">
         <v>1.20973965241944E-2</v>
-      </c>
-      <c r="F13">
-        <v>3.2458128162750698E-2</v>
       </c>
       <c r="G13">
         <v>1.91089208488382E-3</v>
@@ -1137,10 +1157,10 @@
         <v>-6.5125384146953097E-2</v>
       </c>
       <c r="E14">
+        <v>-2.5290448214403599E-2</v>
+      </c>
+      <c r="F14">
         <v>-3.5730498786378698E-2</v>
-      </c>
-      <c r="F14">
-        <v>-2.5290448214403599E-2</v>
       </c>
       <c r="G14">
         <v>1.3049588436057099E-2</v>
@@ -1185,10 +1205,10 @@
         <v>0.10642570934034799</v>
       </c>
       <c r="E15">
+        <v>1.89033836464143E-2</v>
+      </c>
+      <c r="F15">
         <v>3.45190716303896E-2</v>
-      </c>
-      <c r="F15">
-        <v>1.89033836464143E-2</v>
       </c>
       <c r="G15">
         <v>9.7106619104241308E-3</v>
@@ -1233,10 +1253,10 @@
         <v>-0.122230853399187</v>
       </c>
       <c r="E16">
+        <v>-1.91176470588236E-2</v>
+      </c>
+      <c r="F16">
         <v>-4.7795228719263803E-2</v>
-      </c>
-      <c r="F16">
-        <v>-1.91176470588236E-2</v>
       </c>
       <c r="G16">
         <v>1.7075564278704599E-2</v>
@@ -1281,10 +1301,10 @@
         <v>-5.4077369128235797E-2</v>
       </c>
       <c r="E17">
+        <v>-2.0108589772910201E-2</v>
+      </c>
+      <c r="F17">
         <v>2.9007433668124499E-2</v>
-      </c>
-      <c r="F17">
-        <v>-2.0108589772910201E-2</v>
       </c>
       <c r="G17">
         <v>1.20609803164802E-2</v>
@@ -1329,10 +1349,10 @@
         <v>-5.9861186322499399E-2</v>
       </c>
       <c r="E18">
+        <v>2.9952024895189701E-2</v>
+      </c>
+      <c r="F18">
         <v>-3.01244448726246E-3</v>
-      </c>
-      <c r="F18">
-        <v>2.9952024895189701E-2</v>
       </c>
       <c r="G18">
         <v>1.1249880827533599E-2</v>
@@ -1377,10 +1397,10 @@
         <v>-6.7388488991958501E-3</v>
       </c>
       <c r="E19">
+        <v>-1.4267729752415201E-4</v>
+      </c>
+      <c r="F19">
         <v>2.4085116755017299E-2</v>
-      </c>
-      <c r="F19">
-        <v>-1.4267729752415201E-4</v>
       </c>
       <c r="G19">
         <v>1.7912699160931501E-2</v>
@@ -1425,10 +1445,10 @@
         <v>-5.8972687371604798E-2</v>
       </c>
       <c r="E20">
+        <v>3.5968203604375103E-2</v>
+      </c>
+      <c r="F20">
         <v>4.7878116140626099E-2</v>
-      </c>
-      <c r="F20">
-        <v>3.5968203604375103E-2</v>
       </c>
       <c r="G20">
         <v>1.7134389182180201E-2</v>
@@ -1473,10 +1493,10 @@
         <v>0.134685328768503</v>
       </c>
       <c r="E21">
+        <v>-1.12220259605569E-2</v>
+      </c>
+      <c r="F21">
         <v>1.51670118500258E-3</v>
-      </c>
-      <c r="F21">
-        <v>-1.12220259605569E-2</v>
       </c>
       <c r="G21">
         <v>3.0049171371335798E-3</v>
@@ -1521,10 +1541,10 @@
         <v>2.88318412763773E-2</v>
       </c>
       <c r="E22">
+        <v>6.9489400408087E-3</v>
+      </c>
+      <c r="F22">
         <v>3.5224493493161098E-2</v>
-      </c>
-      <c r="F22">
-        <v>6.9489400408087E-3</v>
       </c>
       <c r="G22">
         <v>8.8969586926916904E-3</v>
@@ -1569,10 +1589,10 @@
         <v>-4.6980537291735902E-2</v>
       </c>
       <c r="E23">
+        <v>-1.7740741042146398E-2</v>
+      </c>
+      <c r="F23">
         <v>-6.7546984415873895E-2</v>
-      </c>
-      <c r="F23">
-        <v>-1.7740741042146398E-2</v>
       </c>
       <c r="G23">
         <v>2.06964815981281E-3</v>
@@ -1617,10 +1637,10 @@
         <v>1.0148927363367E-3</v>
       </c>
       <c r="E24">
+        <v>3.5186121076047301E-2</v>
+      </c>
+      <c r="F24">
         <v>3.8284153681574798E-2</v>
-      </c>
-      <c r="F24">
-        <v>3.5186121076047301E-2</v>
       </c>
       <c r="G24">
         <v>-6.1063218390804402E-3</v>
@@ -1665,10 +1685,10 @@
         <v>3.69270644966848E-2</v>
       </c>
       <c r="E25">
+        <v>-9.5239619681797305E-4</v>
+      </c>
+      <c r="F25">
         <v>-4.0643657353415198E-3</v>
-      </c>
-      <c r="F25">
-        <v>-9.5239619681797305E-4</v>
       </c>
       <c r="G25">
         <v>6.5955908926633696E-3</v>
@@ -1713,10 +1733,10 @@
         <v>0.113536193905347</v>
       </c>
       <c r="E26">
+        <v>2.5466838635253002E-2</v>
+      </c>
+      <c r="F26">
         <v>5.8932821920312899E-2</v>
-      </c>
-      <c r="F26">
-        <v>2.5466838635253002E-2</v>
       </c>
       <c r="G26">
         <v>1.24764383807558E-2</v>
@@ -1761,10 +1781,10 @@
         <v>7.24482583288344E-3</v>
       </c>
       <c r="E27">
+        <v>4.5309668145754301E-4</v>
+      </c>
+      <c r="F27">
         <v>1.0495685304644099E-2</v>
-      </c>
-      <c r="F27">
-        <v>4.5309668145754301E-4</v>
       </c>
       <c r="G27">
         <v>2.7482269503547002E-3</v>
@@ -1809,10 +1829,10 @@
         <v>3.6823927208347297E-2</v>
       </c>
       <c r="E28">
+        <v>1.10646073118548E-2</v>
+      </c>
+      <c r="F28">
         <v>-7.12630854202156E-3</v>
-      </c>
-      <c r="F28">
-        <v>1.10646073118548E-2</v>
       </c>
       <c r="G28">
         <v>2.2986473344532902E-3</v>
@@ -1857,10 +1877,10 @@
         <v>0.14139850897424699</v>
       </c>
       <c r="E29">
+        <v>1.2186928013716101E-2</v>
+      </c>
+      <c r="F29">
         <v>5.4176389303665098E-2</v>
-      </c>
-      <c r="F29">
-        <v>1.2186928013716101E-2</v>
       </c>
       <c r="G29">
         <v>-3.79289053541509E-3</v>
@@ -1905,10 +1925,10 @@
         <v>0.22830027547002901</v>
       </c>
       <c r="E30">
+        <v>-3.0916901290238798E-2</v>
+      </c>
+      <c r="F30">
         <v>-4.8220126880855599E-2</v>
-      </c>
-      <c r="F30">
-        <v>-3.0916901290238798E-2</v>
       </c>
       <c r="G30">
         <v>3.63024614839724E-3</v>
@@ -1953,10 +1973,10 @@
         <v>5.9659909350995098E-2</v>
       </c>
       <c r="E31">
+        <v>8.6608035651192198E-5</v>
+      </c>
+      <c r="F31">
         <v>2.5837611435064901E-2</v>
-      </c>
-      <c r="F31">
-        <v>8.6608035651192198E-5</v>
       </c>
       <c r="G31">
         <v>-5.4697838553152698E-3</v>
@@ -2001,10 +2021,10 @@
         <v>-4.1016961699063402E-2</v>
       </c>
       <c r="E32">
+        <v>5.0858132577547002E-3</v>
+      </c>
+      <c r="F32">
         <v>4.3258940152277797E-2</v>
-      </c>
-      <c r="F32">
-        <v>5.0858132577547002E-3</v>
       </c>
       <c r="G32">
         <v>3.5483012507753198E-4</v>
@@ -2049,10 +2069,10 @@
         <v>3.8494250002105303E-2</v>
       </c>
       <c r="E33">
+        <v>2.1274262528785799E-2</v>
+      </c>
+      <c r="F33">
         <v>2.4802402167418702E-2</v>
-      </c>
-      <c r="F33">
-        <v>2.1274262528785799E-2</v>
       </c>
       <c r="G33">
         <v>3.1923383878691399E-3</v>
@@ -2097,10 +2117,10 @@
         <v>4.79106696398406E-2</v>
       </c>
       <c r="E34">
+        <v>2.45662744857418E-2</v>
+      </c>
+      <c r="F34">
         <v>8.6693686333065793E-3</v>
-      </c>
-      <c r="F34">
-        <v>2.45662744857418E-2</v>
       </c>
       <c r="G34">
         <v>8.8393883143287298E-3</v>
@@ -2115,11 +2135,11 @@
         <v>8.0479999999999996E-3</v>
       </c>
       <c r="L34">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L34:L65" si="3">AVERAGE(C34,D34)</f>
         <v>4.80724967702989E-2</v>
       </c>
       <c r="M34">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M34:M65" si="4">AVERAGE(F34,E34)</f>
         <v>1.6617821559524189E-2</v>
       </c>
       <c r="N34">
@@ -2145,10 +2165,10 @@
         <v>-5.9091967193771701E-3</v>
       </c>
       <c r="E35">
+        <v>3.1508028596025202E-2</v>
+      </c>
+      <c r="F35">
         <v>4.4536155343569001E-2</v>
-      </c>
-      <c r="F35">
-        <v>3.1508028596025202E-2</v>
       </c>
       <c r="G35">
         <v>5.2571628844300103E-3</v>
@@ -2163,11 +2183,11 @@
         <v>5.8599999999999998E-3</v>
       </c>
       <c r="L35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.8854539614963316E-2</v>
       </c>
       <c r="M35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.8022091969797098E-2</v>
       </c>
       <c r="N35">
@@ -2193,10 +2213,10 @@
         <v>5.3304956607869998E-2</v>
       </c>
       <c r="E36">
+        <v>1.6466609576614399E-2</v>
+      </c>
+      <c r="F36">
         <v>3.4715010355074002E-2</v>
-      </c>
-      <c r="F36">
-        <v>1.6466609576614399E-2</v>
       </c>
       <c r="G36">
         <v>8.7161160986659603E-4</v>
@@ -2211,11 +2231,11 @@
         <v>3.5630000000000002E-3</v>
       </c>
       <c r="L36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.11196815158708849</v>
       </c>
       <c r="M36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.5590809965844202E-2</v>
       </c>
       <c r="N36">
@@ -2241,10 +2261,10 @@
         <v>6.3018223739635504E-2</v>
       </c>
       <c r="E37">
+        <v>1.2615751483261E-2</v>
+      </c>
+      <c r="F37">
         <v>5.2964903842096997E-2</v>
-      </c>
-      <c r="F37">
-        <v>1.2615751483261E-2</v>
       </c>
       <c r="G37">
         <v>-2.5254724375162198E-3</v>
@@ -2262,11 +2282,11 @@
         <v>8.83E-4</v>
       </c>
       <c r="L37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.12678938588493027</v>
       </c>
       <c r="M37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.2790327662678996E-2</v>
       </c>
       <c r="N37">
@@ -2292,10 +2312,10 @@
         <v>0.241430910247453</v>
       </c>
       <c r="E38">
+        <v>1.4059084819854699E-2</v>
+      </c>
+      <c r="F38">
         <v>7.0975200253244903E-3</v>
-      </c>
-      <c r="F38">
-        <v>1.4059084819854699E-2</v>
       </c>
       <c r="G38">
         <v>4.4525929806180599E-3</v>
@@ -2313,11 +2333,11 @@
         <v>2.2529999999999998E-3</v>
       </c>
       <c r="L38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.205056482057452</v>
       </c>
       <c r="M38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0578302422589595E-2</v>
       </c>
       <c r="N38">
@@ -2343,10 +2363,10 @@
         <v>0.172963533842832</v>
       </c>
       <c r="E39">
+        <v>-2.1846145288686201E-2</v>
+      </c>
+      <c r="F39">
         <v>-2.2625111780217401E-2</v>
-      </c>
-      <c r="F39">
-        <v>-2.1846145288686201E-2</v>
       </c>
       <c r="G39">
         <v>-3.3898305084746299E-3</v>
@@ -2364,11 +2384,11 @@
         <v>4.7800000000000002E-4</v>
       </c>
       <c r="L39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.1198598878142885</v>
       </c>
       <c r="M39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.2235628534451803E-2</v>
       </c>
       <c r="N39">
@@ -2394,10 +2414,10 @@
         <v>0.16412396415722399</v>
       </c>
       <c r="E40">
+        <v>9.9799547916577004E-3</v>
+      </c>
+      <c r="F40">
         <v>7.6034869585086496E-3</v>
-      </c>
-      <c r="F40">
-        <v>9.9799547916577004E-3</v>
       </c>
       <c r="G40">
         <v>1.2210012210012199E-3</v>
@@ -2415,11 +2435,11 @@
         <v>-2.163E-3</v>
       </c>
       <c r="L40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.12867357200870239</v>
       </c>
       <c r="M40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.7917208750831755E-3</v>
       </c>
       <c r="N40">
@@ -2445,10 +2465,10 @@
         <v>0.33410923342756699</v>
       </c>
       <c r="E41">
+        <v>4.3290683107413797E-2</v>
+      </c>
+      <c r="F41">
         <v>2.6162912550067099E-2</v>
-      </c>
-      <c r="F41">
-        <v>4.3290683107413797E-2</v>
       </c>
       <c r="G41">
         <v>-2.1777003484320101E-3</v>
@@ -2466,11 +2486,11 @@
         <v>-1.2770000000000001E-3</v>
       </c>
       <c r="L41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.30669971496727849</v>
       </c>
       <c r="M41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.4726797828740448E-2</v>
       </c>
       <c r="N41">
@@ -2496,10 +2516,10 @@
         <v>9.3268700452315806E-2</v>
       </c>
       <c r="E42">
+        <v>3.2549228600147001E-2</v>
+      </c>
+      <c r="F42">
         <v>1.5526862076738099E-2</v>
-      </c>
-      <c r="F42">
-        <v>3.2549228600147001E-2</v>
       </c>
       <c r="G42">
         <v>-1.15233522479266E-2</v>
@@ -2517,11 +2537,11 @@
         <v>-7.5290000000000001E-3</v>
       </c>
       <c r="L42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.8513135482271905E-2</v>
       </c>
       <c r="M42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.4038045338442549E-2</v>
       </c>
       <c r="N42">
@@ -2547,10 +2567,10 @@
         <v>-0.15987113678044901</v>
       </c>
       <c r="E43">
+        <v>-1.7816309730697401E-2</v>
+      </c>
+      <c r="F43">
         <v>5.5163035445058503E-2</v>
-      </c>
-      <c r="F43">
-        <v>-1.7816309730697401E-2</v>
       </c>
       <c r="G43">
         <v>-9.9796873620066097E-3</v>
@@ -2568,11 +2588,11 @@
         <v>-8.8229999999999992E-3</v>
       </c>
       <c r="L43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.10079554834924645</v>
       </c>
       <c r="M43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.8673362857180551E-2</v>
       </c>
       <c r="N43">
@@ -2598,10 +2618,10 @@
         <v>0.22816934719588899</v>
       </c>
       <c r="E44">
+        <v>-3.1981907074200899E-2</v>
+      </c>
+      <c r="F44">
         <v>6.4861411499614399E-2</v>
-      </c>
-      <c r="F44">
-        <v>-3.1981907074200899E-2</v>
       </c>
       <c r="G44">
         <v>3.5682426404992602E-4</v>
@@ -2619,11 +2639,11 @@
         <v>3.421E-3</v>
       </c>
       <c r="L44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.2066021506534145</v>
       </c>
       <c r="M44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.643975221270675E-2</v>
       </c>
       <c r="N44">
@@ -2649,10 +2669,10 @@
         <v>0.112193159026829</v>
       </c>
       <c r="E45">
+        <v>1.2863592323074E-2</v>
+      </c>
+      <c r="F45">
         <v>3.4470652069835003E-2</v>
-      </c>
-      <c r="F45">
-        <v>1.2863592323074E-2</v>
       </c>
       <c r="G45">
         <v>4.7262350633137098E-3</v>
@@ -2670,11 +2690,11 @@
         <v>4.8920000000000005E-3</v>
       </c>
       <c r="L45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.1498346135378115</v>
       </c>
       <c r="M45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.3667122196454501E-2</v>
       </c>
       <c r="N45">
@@ -2700,10 +2720,10 @@
         <v>3.7980364404377701E-2</v>
       </c>
       <c r="E46">
+        <v>3.5794001316155503E-2</v>
+      </c>
+      <c r="F46">
         <v>0.13168410457911001</v>
-      </c>
-      <c r="F46">
-        <v>3.5794001316155503E-2</v>
       </c>
       <c r="G46">
         <v>-3.8164551344634901E-3</v>
@@ -2721,11 +2741,11 @@
         <v>-2.1290000000000002E-3</v>
       </c>
       <c r="L46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.5798755583956297E-2</v>
       </c>
       <c r="M46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.3739052947632758E-2</v>
       </c>
       <c r="N46">
@@ -2751,10 +2771,10 @@
         <v>-0.10493779076057599</v>
       </c>
       <c r="E47">
+        <v>1.4822335025380899E-2</v>
+      </c>
+      <c r="F47">
         <v>0.15511152816969101</v>
-      </c>
-      <c r="F47">
-        <v>1.4822335025380899E-2</v>
       </c>
       <c r="G47">
         <v>8.9094796863875602E-4</v>
@@ -2772,11 +2792,11 @@
         <v>3.8199999999999996E-4</v>
       </c>
       <c r="L47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-4.2817075833566101E-2</v>
       </c>
       <c r="M47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.4966931597535961E-2</v>
       </c>
       <c r="N47">
@@ -2802,10 +2822,10 @@
         <v>-9.3897542142810597E-2</v>
       </c>
       <c r="E48">
+        <v>-4.4043423821141299E-2</v>
+      </c>
+      <c r="F48">
         <v>-8.6403415604074704E-2</v>
-      </c>
-      <c r="F48">
-        <v>-4.4043423821141299E-2</v>
       </c>
       <c r="G48">
         <v>-4.4507744347516099E-3</v>
@@ -2823,11 +2843,11 @@
         <v>-2.4550000000000002E-3</v>
       </c>
       <c r="L48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.13054970368279628</v>
       </c>
       <c r="M48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-6.5223419712608005E-2</v>
       </c>
       <c r="N48">
@@ -2853,10 +2873,10 @@
         <v>0.20002051937795701</v>
       </c>
       <c r="E49">
+        <v>-8.6284888666838793E-3</v>
+      </c>
+      <c r="F49">
         <v>-2.9010309803827E-2</v>
-      </c>
-      <c r="F49">
-        <v>-8.6284888666838793E-3</v>
       </c>
       <c r="G49">
         <v>-5.36480686695318E-4</v>
@@ -2874,11 +2894,11 @@
         <v>5.306E-3</v>
       </c>
       <c r="L49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.1634275334386745</v>
       </c>
       <c r="M49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.8819399335255439E-2</v>
       </c>
       <c r="N49">
@@ -2904,10 +2924,10 @@
         <v>-5.7439531829857803E-2</v>
       </c>
       <c r="E50">
+        <v>-6.1163474897164102E-2</v>
+      </c>
+      <c r="F50">
         <v>-0.15665209895497201</v>
-      </c>
-      <c r="F50">
-        <v>-6.1163474897164102E-2</v>
       </c>
       <c r="G50">
         <v>8.0515297906602595E-3</v>
@@ -2925,11 +2945,11 @@
         <v>1.0107E-2</v>
       </c>
       <c r="L50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-9.5958152847036904E-2</v>
       </c>
       <c r="M50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.10890778692606806</v>
       </c>
       <c r="N50">
@@ -2955,10 +2975,10 @@
         <v>8.4530756966729306E-2</v>
       </c>
       <c r="E51">
+        <v>-3.4761162090602302E-2</v>
+      </c>
+      <c r="F51">
         <v>3.7343946513731699E-2</v>
-      </c>
-      <c r="F51">
-        <v>-3.4761162090602302E-2</v>
       </c>
       <c r="G51">
         <v>1.67731629392971E-2</v>
@@ -2976,11 +2996,11 @@
         <v>8.1860000000000006E-3</v>
       </c>
       <c r="L51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.8125151260662656E-2</v>
       </c>
       <c r="M51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.2913922115646986E-3</v>
       </c>
       <c r="N51">
@@ -3006,10 +3026,10 @@
         <v>-0.20039457317546999</v>
       </c>
       <c r="E52">
+        <v>-5.9595830546433897E-3</v>
+      </c>
+      <c r="F52">
         <v>-6.0927618453347598E-2</v>
-      </c>
-      <c r="F52">
-        <v>-5.9595830546433897E-3</v>
       </c>
       <c r="G52">
         <v>7.6808937767305404E-3</v>
@@ -3027,11 +3047,11 @@
         <v>6.5550000000000001E-3</v>
       </c>
       <c r="L52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.19475398188460849</v>
       </c>
       <c r="M52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3.3443600753995495E-2</v>
       </c>
       <c r="N52">
@@ -3057,10 +3077,10 @@
         <v>-3.4845842014708903E-2</v>
       </c>
       <c r="E53">
+        <v>4.7546684811370601E-2</v>
+      </c>
+      <c r="F53">
         <v>0.12718828237971699</v>
-      </c>
-      <c r="F53">
-        <v>4.7546684811370601E-2</v>
       </c>
       <c r="G53">
         <v>7.7955825032494097E-4</v>
@@ -3078,11 +3098,11 @@
         <v>1.8509999999999998E-3</v>
       </c>
       <c r="L53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.8152620435644999E-3</v>
       </c>
       <c r="M53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.7367483595543804E-2</v>
       </c>
       <c r="N53">
@@ -3108,10 +3128,10 @@
         <v>-3.7801760514124601E-2</v>
       </c>
       <c r="E54">
+        <v>1.06741532487966E-2</v>
+      </c>
+      <c r="F54">
         <v>-4.7455403206796302E-2</v>
-      </c>
-      <c r="F54">
-        <v>1.06741532487966E-2</v>
       </c>
       <c r="G54">
         <v>9.5205123766661803E-4</v>
@@ -3129,11 +3149,11 @@
         <v>2.6400000000000002E-4</v>
       </c>
       <c r="L54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-6.2823404434789745E-2</v>
       </c>
       <c r="M54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.8390624978999851E-2</v>
       </c>
       <c r="N54">
@@ -3159,10 +3179,10 @@
         <v>-0.25080073095573002</v>
       </c>
       <c r="E55">
+        <v>-8.5962381639269406E-2</v>
+      </c>
+      <c r="F55">
         <v>-9.9094994406968798E-2</v>
-      </c>
-      <c r="F55">
-        <v>-8.5962381639269406E-2</v>
       </c>
       <c r="G55">
         <v>-1.8158236057069801E-3</v>
@@ -3180,11 +3200,11 @@
         <v>-6.5480000000000009E-3</v>
       </c>
       <c r="L55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.23886424166752351</v>
       </c>
       <c r="M55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-9.2528688023119102E-2</v>
       </c>
       <c r="N55">
@@ -3210,10 +3230,10 @@
         <v>7.2324641150706095E-2</v>
       </c>
       <c r="E56">
+        <v>-9.8593749999998908E-3</v>
+      </c>
+      <c r="F56">
         <v>2.8463013350035E-2</v>
-      </c>
-      <c r="F56">
-        <v>-9.8593749999998908E-3</v>
       </c>
       <c r="G56">
         <v>-4.6777546777546598E-3</v>
@@ -3231,11 +3251,11 @@
         <v>3.0799999999999998E-3</v>
       </c>
       <c r="L56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.8560577768960581E-2</v>
       </c>
       <c r="M56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.3018191750175554E-3</v>
       </c>
       <c r="N56">
@@ -3261,10 +3281,10 @@
         <v>-0.23533574151279099</v>
       </c>
       <c r="E57">
+        <v>1.21905032429104E-2</v>
+      </c>
+      <c r="F57">
         <v>-6.4634312719302103E-2</v>
-      </c>
-      <c r="F57">
-        <v>1.21905032429104E-2</v>
       </c>
       <c r="G57">
         <v>4.5256744995647597E-3</v>
@@ -3282,11 +3302,11 @@
         <v>9.9810000000000003E-3</v>
       </c>
       <c r="L57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.19138249461699799</v>
       </c>
       <c r="M57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.6221904738195852E-2</v>
       </c>
       <c r="N57">
@@ -3312,10 +3332,10 @@
         <v>-7.4185209682214995E-2</v>
       </c>
       <c r="E58">
+        <v>-9.0791453271283004E-2</v>
+      </c>
+      <c r="F58">
         <v>-0.152652450389337</v>
-      </c>
-      <c r="F58">
-        <v>-9.0791453271283004E-2</v>
       </c>
       <c r="G58">
         <v>4.12406861895687E-2</v>
@@ -3333,11 +3353,11 @@
         <v>2.4468E-2</v>
       </c>
       <c r="L58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-6.8030162333037644E-2</v>
       </c>
       <c r="M58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.12172195183031001</v>
       </c>
       <c r="N58">
@@ -3363,10 +3383,10 @@
         <v>-0.26871663449595801</v>
       </c>
       <c r="E59">
+        <v>-0.169424534449055</v>
+      </c>
+      <c r="F59">
         <v>-0.224661057892034</v>
-      </c>
-      <c r="F59">
-        <v>-0.169424534449055</v>
       </c>
       <c r="G59">
         <v>4.1105009152937202E-2</v>
@@ -3384,11 +3404,11 @@
         <v>2.8858000000000002E-2</v>
       </c>
       <c r="L59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.26361091691004851</v>
       </c>
       <c r="M59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.19704279617054449</v>
       </c>
       <c r="N59">
@@ -3414,10 +3434,10 @@
         <v>0.17888864561446599</v>
       </c>
       <c r="E60">
+        <v>-7.4849032258064496E-2</v>
+      </c>
+      <c r="F60">
         <v>-5.7578638893887001E-3</v>
-      </c>
-      <c r="F60">
-        <v>-7.4849032258064496E-2</v>
       </c>
       <c r="G60">
         <v>1.31873401534526E-2</v>
@@ -3435,11 +3455,11 @@
         <v>1.0091000000000001E-2</v>
       </c>
       <c r="L60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.13941366750506784</v>
       </c>
       <c r="M60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4.03034480737266E-2</v>
       </c>
       <c r="N60">
@@ -3465,10 +3485,10 @@
         <v>5.3209698878601101E-2</v>
       </c>
       <c r="E61">
+        <v>7.8215656520574904E-3</v>
+      </c>
+      <c r="F61">
         <v>3.5946980525293701E-2</v>
-      </c>
-      <c r="F61">
-        <v>7.8215656520574904E-3</v>
       </c>
       <c r="G61">
         <v>2.23238936656938E-2</v>
@@ -3486,11 +3506,11 @@
         <v>1.6316000000000001E-2</v>
       </c>
       <c r="L61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.327083119591996E-2</v>
       </c>
       <c r="M61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.1884273088675597E-2</v>
       </c>
       <c r="N61">
@@ -3516,10 +3536,10 @@
         <v>0.15398778921468301</v>
       </c>
       <c r="E62">
+        <v>-8.5657348463880401E-2</v>
+      </c>
+      <c r="F62">
         <v>-7.7099704844083003E-2</v>
-      </c>
-      <c r="F62">
-        <v>-8.5657348463880401E-2</v>
       </c>
       <c r="G62">
         <v>-1.13425925925926E-2</v>
@@ -3537,11 +3557,11 @@
         <v>-7.0959999999999999E-3</v>
       </c>
       <c r="L62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.13612284831973551</v>
       </c>
       <c r="M62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-8.1378526653981709E-2</v>
       </c>
       <c r="N62">
@@ -3567,10 +3587,10 @@
         <v>7.9919770589281305E-2</v>
       </c>
       <c r="E63">
+        <v>-0.10993122487528501</v>
+      </c>
+      <c r="F63">
         <v>-3.5143268558036102E-2</v>
-      </c>
-      <c r="F63">
-        <v>-0.10993122487528501</v>
       </c>
       <c r="G63">
         <v>-3.35596659642545E-3</v>
@@ -3588,11 +3608,11 @@
         <v>-1.9750000000000002E-3</v>
       </c>
       <c r="L63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.6478297914027248E-2</v>
       </c>
       <c r="M63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-7.253724671666055E-2</v>
       </c>
       <c r="N63">
@@ -3618,10 +3638,10 @@
         <v>0.20570520933623301</v>
       </c>
       <c r="E64">
+        <v>8.5404508291501605E-2</v>
+      </c>
+      <c r="F64">
         <v>5.9668657479091398E-2</v>
-      </c>
-      <c r="F64">
-        <v>8.5404508291501605E-2</v>
       </c>
       <c r="G64">
         <v>1.8794048551291601E-3</v>
@@ -3639,11 +3659,11 @@
         <v>1.6200000000000001E-3</v>
       </c>
       <c r="L64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.18865075639886603</v>
       </c>
       <c r="M64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.2536582885296505E-2</v>
       </c>
       <c r="N64">
@@ -3669,10 +3689,10 @@
         <v>5.9053342886791399E-2</v>
       </c>
       <c r="E65">
+        <v>9.3925075513554807E-2</v>
+      </c>
+      <c r="F65">
         <v>0.14326516693645</v>
-      </c>
-      <c r="F65">
-        <v>9.3925075513554807E-2</v>
       </c>
       <c r="G65">
         <v>-9.3793965921529199E-4</v>
@@ -3690,11 +3710,11 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.2482550107828749E-2</v>
       </c>
       <c r="M65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1185951212250024</v>
       </c>
       <c r="N65">
@@ -3720,10 +3740,10 @@
         <v>6.1736099567852899E-2</v>
       </c>
       <c r="E66">
+        <v>5.3081426656431702E-2</v>
+      </c>
+      <c r="F66">
         <v>0.17073716082882401</v>
-      </c>
-      <c r="F66">
-        <v>5.3081426656431702E-2</v>
       </c>
       <c r="G66">
         <v>7.3540916914409697E-3</v>
@@ -3741,11 +3761,11 @@
         <v>4.4099999999999999E-3</v>
       </c>
       <c r="L66">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L66:L97" si="5">AVERAGE(C66,D66)</f>
         <v>5.6943127769351849E-2</v>
       </c>
       <c r="M66">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M66:M97" si="6">AVERAGE(F66,E66)</f>
         <v>0.11190929374262786</v>
       </c>
       <c r="N66">
@@ -3771,10 +3791,10 @@
         <v>5.3563777257207498E-2</v>
       </c>
       <c r="E67">
+        <v>1.95835237287056E-4</v>
+      </c>
+      <c r="F67">
         <v>1.1431979527819E-2</v>
-      </c>
-      <c r="F67">
-        <v>1.95835237287056E-4</v>
       </c>
       <c r="G67">
         <v>-5.04815159987559E-3</v>
@@ -3792,15 +3812,15 @@
         <v>-1.5040000000000001E-3</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L130" si="3">AVERAGE(C67,D67)</f>
+        <f t="shared" si="5"/>
         <v>0.10047834680974724</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M130" si="4">AVERAGE(E67,F67)</f>
+        <f t="shared" si="6"/>
         <v>5.8139073825530284E-3</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N130" si="5">1+M67</f>
+        <f t="shared" ref="N67:N130" si="7">1+M67</f>
         <v>1.0058139073825529</v>
       </c>
       <c r="O67">
@@ -3822,10 +3842,10 @@
         <v>0.13797355531719299</v>
       </c>
       <c r="E68">
+        <v>7.4141756950789603E-2</v>
+      </c>
+      <c r="F68">
         <v>0.119409749220709</v>
-      </c>
-      <c r="F68">
-        <v>7.4141756950789603E-2</v>
       </c>
       <c r="G68">
         <v>-8.3521973304192497E-3</v>
@@ -3843,15 +3863,15 @@
         <v>-6.8730000000000006E-3</v>
       </c>
       <c r="L68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.15869981493602248</v>
       </c>
       <c r="M68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.6775753085749303E-2</v>
       </c>
       <c r="N68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0967757530857494</v>
       </c>
       <c r="O68">
@@ -3873,10 +3893,10 @@
         <v>-0.165603433705376</v>
       </c>
       <c r="E69">
+        <v>3.3560173370599897E-2</v>
+      </c>
+      <c r="F69">
         <v>-4.1273852889766198E-2</v>
-      </c>
-      <c r="F69">
-        <v>3.3560173370599897E-2</v>
       </c>
       <c r="G69">
         <v>3.1486146095718302E-3</v>
@@ -3894,15 +3914,15 @@
         <v>3.1259999999999999E-3</v>
       </c>
       <c r="L69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.20387836128952802</v>
       </c>
       <c r="M69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-3.8568397595831506E-3</v>
       </c>
       <c r="N69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99614316024041683</v>
       </c>
       <c r="O69">
@@ -3924,10 +3944,10 @@
         <v>3.7408820081287403E-2</v>
       </c>
       <c r="E70">
+        <v>3.5723383825517797E-2</v>
+      </c>
+      <c r="F70">
         <v>6.2413743287145003E-2</v>
-      </c>
-      <c r="F70">
-        <v>3.5723383825517797E-2</v>
       </c>
       <c r="G70">
         <v>-1.4908976773383401E-3</v>
@@ -3945,15 +3965,15 @@
         <v>-3.6299999999999999E-4</v>
       </c>
       <c r="L70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.95378531985603E-2</v>
       </c>
       <c r="M70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.90685635563314E-2</v>
       </c>
       <c r="N70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0490685635563315</v>
       </c>
       <c r="O70">
@@ -3975,10 +3995,10 @@
         <v>0.125582871138612</v>
       </c>
       <c r="E71">
+        <v>-1.9761985847807102E-2</v>
+      </c>
+      <c r="F71">
         <v>3.8062972286181197E-2</v>
-      </c>
-      <c r="F71">
-        <v>-1.9761985847807102E-2</v>
       </c>
       <c r="G71">
         <v>-1.9646365422396599E-3</v>
@@ -3996,15 +4016,15 @@
         <v>-1.472E-3</v>
       </c>
       <c r="L71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.10864582545483935</v>
       </c>
       <c r="M71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.1504932191870478E-3</v>
       </c>
       <c r="N71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.009150493219187</v>
       </c>
       <c r="O71">
@@ -4026,10 +4046,10 @@
         <v>0.15091244494384701</v>
       </c>
       <c r="E72">
+        <v>5.73639969503663E-2</v>
+      </c>
+      <c r="F72">
         <v>3.1550274901437402E-3</v>
-      </c>
-      <c r="F72">
-        <v>5.73639969503663E-2</v>
       </c>
       <c r="G72">
         <v>3.2283464566929001E-3</v>
@@ -4047,15 +4067,15 @@
         <v>4.6519999999999999E-3</v>
       </c>
       <c r="L72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.11071091309847436</v>
       </c>
       <c r="M72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.0259512220255021E-2</v>
       </c>
       <c r="N72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0302595122202549</v>
       </c>
       <c r="O72">
@@ -4077,10 +4097,10 @@
         <v>1.8143257437357702E-2</v>
       </c>
       <c r="E73">
+        <v>1.7770597738287399E-2</v>
+      </c>
+      <c r="F73">
         <v>2.3371445592650399E-3</v>
-      </c>
-      <c r="F73">
-        <v>1.7770597738287399E-2</v>
       </c>
       <c r="G73">
         <v>2.9824974491798901E-3</v>
@@ -4098,15 +4118,15 @@
         <v>2.3480000000000003E-3</v>
       </c>
       <c r="L73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.8186240602657749E-2</v>
       </c>
       <c r="M73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0053871148776219E-2</v>
       </c>
       <c r="N73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0100538711487763</v>
       </c>
       <c r="O73">
@@ -4128,10 +4148,10 @@
         <v>-2.4659913427441699E-2</v>
       </c>
       <c r="E74">
+        <v>-3.6974262397991203E-2</v>
+      </c>
+      <c r="F74">
         <v>-8.0032451708766703E-2</v>
-      </c>
-      <c r="F74">
-        <v>-3.6974262397991203E-2</v>
       </c>
       <c r="G74">
         <v>4.7734564519914501E-3</v>
@@ -4149,15 +4169,15 @@
         <v>4.176E-3</v>
       </c>
       <c r="L74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-6.4282114678462843E-2</v>
       </c>
       <c r="M74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-5.8503357053378953E-2</v>
       </c>
       <c r="N74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.94149664294662105</v>
       </c>
       <c r="O74">
@@ -4179,10 +4199,10 @@
         <v>5.9438368655405201E-2</v>
       </c>
       <c r="E75">
+        <v>2.8513693463827299E-2</v>
+      </c>
+      <c r="F75">
         <v>2.41879155671192E-2</v>
-      </c>
-      <c r="F75">
-        <v>2.8513693463827299E-2</v>
       </c>
       <c r="G75">
         <v>9.2679127725856496E-3</v>
@@ -4200,15 +4220,15 @@
         <v>7.4580000000000002E-3</v>
       </c>
       <c r="L75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.1814572971510353E-2</v>
       </c>
       <c r="M75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.6350804515473249E-2</v>
       </c>
       <c r="N75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0263508045154732</v>
       </c>
       <c r="O75">
@@ -4230,10 +4250,10 @@
         <v>2.62124323387787E-2</v>
       </c>
       <c r="E76">
+        <v>5.8796367554255803E-2</v>
+      </c>
+      <c r="F76">
         <v>3.0601174478785301E-2</v>
-      </c>
-      <c r="F76">
-        <v>5.8796367554255803E-2</v>
       </c>
       <c r="G76">
         <v>6.7134809784705797E-3</v>
@@ -4251,15 +4271,15 @@
         <v>5.2449999999999997E-3</v>
       </c>
       <c r="L76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.2848371525845401E-2</v>
       </c>
       <c r="M76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.4698771016520554E-2</v>
       </c>
       <c r="N76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0446987710165205</v>
       </c>
       <c r="O76">
@@ -4281,10 +4301,10 @@
         <v>-6.6750529892095706E-2</v>
       </c>
       <c r="E77">
+        <v>1.4759327193590001E-2</v>
+      </c>
+      <c r="F77">
         <v>-6.15648795573287E-3</v>
-      </c>
-      <c r="F77">
-        <v>1.4759327193590001E-2</v>
       </c>
       <c r="G77">
         <v>7.4352291890234E-3</v>
@@ -4302,15 +4322,15 @@
         <v>5.6689999999999996E-3</v>
       </c>
       <c r="L77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7.4958451494856498E-2</v>
       </c>
       <c r="M77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.3014196189285654E-3</v>
       </c>
       <c r="N77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0043014196189286</v>
       </c>
       <c r="O77">
@@ -4332,10 +4352,10 @@
         <v>-7.5318996792064996E-2</v>
       </c>
       <c r="E78">
+        <v>-8.1975916203894897E-2</v>
+      </c>
+      <c r="F78">
         <v>-6.3642351892214094E-2</v>
-      </c>
-      <c r="F78">
-        <v>-8.1975916203894897E-2</v>
       </c>
       <c r="G78">
         <v>8.9781632808339003E-3</v>
@@ -4353,15 +4373,15 @@
         <v>5.1160000000000008E-3</v>
       </c>
       <c r="L78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-8.5599831548428706E-2</v>
       </c>
       <c r="M78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-7.2809134048054502E-2</v>
       </c>
       <c r="N78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.92719086595194544</v>
       </c>
       <c r="O78">
@@ -4383,10 +4403,10 @@
         <v>-0.107178603067369</v>
       </c>
       <c r="E79">
+        <v>-5.3882376699314401E-2</v>
+      </c>
+      <c r="F79">
         <v>1.8406132660655699E-2</v>
-      </c>
-      <c r="F79">
-        <v>-5.3882376699314401E-2</v>
       </c>
       <c r="G79">
         <v>4.2983183771963E-3</v>
@@ -4404,15 +4424,15 @@
         <v>4.0300000000000004E-4</v>
       </c>
       <c r="L79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-9.1485801830807345E-2</v>
       </c>
       <c r="M79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.7738122019329353E-2</v>
       </c>
       <c r="N79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.98226187798067066</v>
       </c>
       <c r="O79">
@@ -4434,10 +4454,10 @@
         <v>0.143722519855564</v>
       </c>
       <c r="E80">
+        <v>6.8777832756061294E-2</v>
+      </c>
+      <c r="F80">
         <v>4.4752384051535803E-2</v>
-      </c>
-      <c r="F80">
-        <v>6.8777832756061294E-2</v>
       </c>
       <c r="G80">
         <v>6.4574260399459203E-3</v>
@@ -4455,15 +4475,15 @@
         <v>5.6030000000000003E-3</v>
       </c>
       <c r="L80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.13151160112018001</v>
       </c>
       <c r="M80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.6765108403798545E-2</v>
       </c>
       <c r="N80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0567651084037986</v>
       </c>
       <c r="O80">
@@ -4485,10 +4505,10 @@
         <v>9.5000393688575505E-2</v>
       </c>
       <c r="E81">
+        <v>-4.7449164851125603E-2</v>
+      </c>
+      <c r="F81">
         <v>-2.3458142906233E-2</v>
-      </c>
-      <c r="F81">
-        <v>-4.7449164851125603E-2</v>
       </c>
       <c r="G81">
         <v>4.7746941211579399E-3</v>
@@ -4506,15 +4526,15 @@
         <v>4.326E-3</v>
       </c>
       <c r="L81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.3485530319838603E-2</v>
       </c>
       <c r="M81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-3.5453653878679298E-2</v>
       </c>
       <c r="N81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.96454634612132073</v>
       </c>
       <c r="O81">
@@ -4536,10 +4556,10 @@
         <v>1.55396620260786E-2</v>
       </c>
       <c r="E82">
+        <v>8.75511040378147E-2</v>
+      </c>
+      <c r="F82">
         <v>8.8704529462390894E-2</v>
-      </c>
-      <c r="F82">
-        <v>8.75511040378147E-2</v>
       </c>
       <c r="G82">
         <v>8.9100089100102597E-4</v>
@@ -4557,15 +4577,15 @@
         <v>-9.8999999999999999E-4</v>
       </c>
       <c r="L82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.3347492535475951E-2</v>
       </c>
       <c r="M82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.8127816750102797E-2</v>
       </c>
       <c r="N82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0881278167501027</v>
       </c>
       <c r="O82">
@@ -4587,10 +4607,10 @@
         <v>8.4728699385594894E-2</v>
       </c>
       <c r="E83">
+        <v>3.6855941114616098E-2</v>
+      </c>
+      <c r="F83">
         <v>3.3014781768878197E-2</v>
-      </c>
-      <c r="F83">
-        <v>3.6855941114616098E-2</v>
       </c>
       <c r="G83">
         <v>-1.0756676557863601E-2</v>
@@ -4608,15 +4628,15 @@
         <v>-7.9659999999999991E-3</v>
       </c>
       <c r="L83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.11805806410776346</v>
       </c>
       <c r="M83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.4935361441747151E-2</v>
       </c>
       <c r="N83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0349353614417471</v>
       </c>
       <c r="O83">
@@ -4638,10 +4658,10 @@
         <v>1.0955016841090799E-2</v>
       </c>
       <c r="E84">
+        <v>-2.2902827780877399E-3</v>
+      </c>
+      <c r="F84">
         <v>-3.82441878186646E-3</v>
-      </c>
-      <c r="F84">
-        <v>-2.2902827780877399E-3</v>
       </c>
       <c r="G84">
         <v>-2.0397450318710202E-2</v>
@@ -4659,15 +4679,15 @@
         <v>-1.4539999999999999E-2</v>
       </c>
       <c r="L84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3.0469122080258901E-2</v>
       </c>
       <c r="M84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-3.0573507799770997E-3</v>
       </c>
       <c r="N84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99694264922002285</v>
       </c>
       <c r="O84">
@@ -4689,10 +4709,10 @@
         <v>-3.4076161127008502E-2</v>
       </c>
       <c r="E85">
+        <v>6.5300072000338896E-2</v>
+      </c>
+      <c r="F85">
         <v>1.19349843250105E-3</v>
-      </c>
-      <c r="F85">
-        <v>6.5300072000338896E-2</v>
       </c>
       <c r="G85">
         <v>8.5738344943735393E-3</v>
@@ -4710,15 +4730,15 @@
         <v>6.0609999999999995E-3</v>
       </c>
       <c r="L85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.8428587690570535E-2</v>
       </c>
       <c r="M85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.3246785216419973E-2</v>
       </c>
       <c r="N85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.03324678521642</v>
       </c>
       <c r="O85">
@@ -4740,10 +4760,10 @@
         <v>-6.6006632749382593E-2</v>
       </c>
       <c r="E86">
+        <v>2.2645590152984701E-2</v>
+      </c>
+      <c r="F86">
         <v>1.7880701266960199E-2</v>
-      </c>
-      <c r="F86">
-        <v>2.2645590152984701E-2</v>
       </c>
       <c r="G86">
         <v>-7.5901328273242396E-4</v>
@@ -4761,15 +4781,15 @@
         <v>-4.7399999999999997E-4</v>
       </c>
       <c r="L86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4.127516453569835E-2</v>
       </c>
       <c r="M86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0263145709972452E-2</v>
       </c>
       <c r="N86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0202631457099725</v>
       </c>
       <c r="O86">
@@ -4791,10 +4811,10 @@
         <v>0.10504504582659201</v>
       </c>
       <c r="E87">
+        <v>3.1956582589494097E-2</v>
+      </c>
+      <c r="F87">
         <v>-4.6623625537054502E-3</v>
-      </c>
-      <c r="F87">
-        <v>3.1956582589494097E-2</v>
       </c>
       <c r="G87">
         <v>-2.1268515001898699E-3</v>
@@ -4812,15 +4832,15 @@
         <v>2.617E-3</v>
       </c>
       <c r="L87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.9021885177265452E-2</v>
       </c>
       <c r="M87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.3647110017894324E-2</v>
       </c>
       <c r="N87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0136471100178943</v>
       </c>
       <c r="O87">
@@ -4842,10 +4862,10 @@
         <v>-1.8606894949136501E-2</v>
       </c>
       <c r="E88">
+        <v>-1.0473018791158401E-3</v>
+      </c>
+      <c r="F88">
         <v>8.1197976520714903E-3</v>
-      </c>
-      <c r="F88">
-        <v>-1.0473018791158401E-3</v>
       </c>
       <c r="G88">
         <v>7.1553627159930402E-3</v>
@@ -4863,15 +4883,15 @@
         <v>4.5030000000000001E-3</v>
       </c>
       <c r="L88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.1814746080335295E-2</v>
       </c>
       <c r="M88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.5362478864778253E-3</v>
       </c>
       <c r="N88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0035362478864778</v>
       </c>
       <c r="O88">
@@ -4893,10 +4913,10 @@
         <v>-3.2704570552527602E-2</v>
       </c>
       <c r="E89">
+        <v>2.8495357625034901E-2</v>
+      </c>
+      <c r="F89">
         <v>8.2154855250362608E-3</v>
-      </c>
-      <c r="F89">
-        <v>2.8495357625034901E-2</v>
       </c>
       <c r="G89">
         <v>4.00574408585896E-3</v>
@@ -4914,15 +4934,15 @@
         <v>4.248E-3</v>
       </c>
       <c r="L89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.1093561885738348E-2</v>
       </c>
       <c r="M89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.8355421575035582E-2</v>
       </c>
       <c r="N89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0183554215750357</v>
       </c>
       <c r="O89">
@@ -4944,10 +4964,10 @@
         <v>-8.1166193150689001E-2</v>
       </c>
       <c r="E90">
+        <v>-1.35009276846018E-2</v>
+      </c>
+      <c r="F90">
         <v>-1.5463215632181E-3</v>
-      </c>
-      <c r="F90">
-        <v>-1.35009276846018E-2</v>
       </c>
       <c r="G90">
         <v>9.3345377898224093E-3</v>
@@ -4965,15 +4985,15 @@
         <v>3.679E-3</v>
       </c>
       <c r="L90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7.0521021036689849E-2</v>
       </c>
       <c r="M90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-7.5236246239099502E-3</v>
       </c>
       <c r="N90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99247637537609001</v>
       </c>
       <c r="O90">
@@ -4995,10 +5015,10 @@
         <v>3.0388751733690701E-2</v>
       </c>
       <c r="E91">
+        <v>-1.82575081772227E-2</v>
+      </c>
+      <c r="F91">
         <v>-5.4299229061823398E-2</v>
-      </c>
-      <c r="F91">
-        <v>-1.82575081772227E-2</v>
       </c>
       <c r="G91">
         <v>-4.3257756563246401E-3</v>
@@ -5016,15 +5036,15 @@
         <v>-2.99E-3</v>
       </c>
       <c r="L91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.2279534364637799E-2</v>
       </c>
       <c r="M91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-3.6278368619523049E-2</v>
       </c>
       <c r="N91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.96372163138047695</v>
       </c>
       <c r="O91">
@@ -5046,10 +5066,10 @@
         <v>1.06976301347008E-2</v>
       </c>
       <c r="E92">
+        <v>-2.14744366367823E-2</v>
+      </c>
+      <c r="F92">
         <v>1.8818560502900099E-3</v>
-      </c>
-      <c r="F92">
-        <v>-2.14744366367823E-2</v>
       </c>
       <c r="G92">
         <v>-8.5393258426965692E-3</v>
@@ -5067,15 +5087,15 @@
         <v>-5.7340000000000004E-3</v>
       </c>
       <c r="L92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-6.4790257086583996E-3</v>
       </c>
       <c r="M92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-9.7962902932461453E-3</v>
       </c>
       <c r="N92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99020370970675387</v>
       </c>
       <c r="O92">
@@ -5097,10 +5117,10 @@
         <v>-4.2733000311127999E-2</v>
       </c>
       <c r="E93">
+        <v>-5.6791097904478803E-2</v>
+      </c>
+      <c r="F93">
         <v>-8.4909927474070099E-2</v>
-      </c>
-      <c r="F93">
-        <v>-5.6791097904478803E-2</v>
       </c>
       <c r="G93">
         <v>-1.0577213659717099E-3</v>
@@ -5118,15 +5138,15 @@
         <v>5.8600000000000004E-4</v>
       </c>
       <c r="L93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4.2446525282756151E-2</v>
       </c>
       <c r="M93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-7.0850512689274447E-2</v>
       </c>
       <c r="N93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.92914948731072555</v>
       </c>
       <c r="O93">
@@ -5148,10 +5168,10 @@
         <v>-0.12948991747729</v>
       </c>
       <c r="E94">
+        <v>-7.1762012979022002E-2</v>
+      </c>
+      <c r="F94">
         <v>-0.14329006542536199</v>
-      </c>
-      <c r="F94">
-        <v>-7.1762012979022002E-2</v>
       </c>
       <c r="G94">
         <v>9.9833610648918398E-3</v>
@@ -5169,15 +5189,15 @@
         <v>8.3340000000000011E-3</v>
       </c>
       <c r="L94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.1113634843971443</v>
       </c>
       <c r="M94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.107526039202192</v>
       </c>
       <c r="N94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.89247396079780805</v>
       </c>
       <c r="O94">
@@ -5199,10 +5219,10 @@
         <v>3.6956275986380599E-2</v>
       </c>
       <c r="E95">
+        <v>0.10772303830584599</v>
+      </c>
+      <c r="F95">
         <v>0.129172751203502</v>
-      </c>
-      <c r="F95">
-        <v>0.10772303830584599</v>
       </c>
       <c r="G95">
         <v>1.6007937696570301E-2</v>
@@ -5220,15 +5240,15 @@
         <v>1.4095999999999999E-2</v>
       </c>
       <c r="L95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.05510757687969E-2</v>
       </c>
       <c r="M95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.11844789475467399</v>
       </c>
       <c r="N95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1184478947546741</v>
       </c>
       <c r="O95">
@@ -5250,10 +5270,10 @@
         <v>-4.48621555138045E-2</v>
       </c>
       <c r="E96">
+        <v>-5.0586451767333802E-3</v>
+      </c>
+      <c r="F96">
         <v>-9.4413907566472902E-2</v>
-      </c>
-      <c r="F96">
-        <v>-5.0586451767333802E-3</v>
       </c>
       <c r="G96">
         <v>1.35740803389208E-2</v>
@@ -5271,15 +5291,15 @@
         <v>1.2044999999999998E-2</v>
       </c>
       <c r="L96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5.4669891368858102E-2</v>
       </c>
       <c r="M96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4.973627637160314E-2</v>
       </c>
       <c r="N96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.95026372362839684</v>
       </c>
       <c r="O96">
@@ -5301,10 +5321,10 @@
         <v>-0.144810313873876</v>
       </c>
       <c r="E97">
+        <v>8.5327516520175006E-3</v>
+      </c>
+      <c r="F97">
         <v>2.47390817344708E-2</v>
-      </c>
-      <c r="F97">
-        <v>8.5327516520175006E-3</v>
       </c>
       <c r="G97">
         <v>1.44248738723409E-2</v>
@@ -5322,15 +5342,15 @@
         <v>1.1000000000000001E-2</v>
       </c>
       <c r="L97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.1072607202479567</v>
       </c>
       <c r="M97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.663591669324415E-2</v>
       </c>
       <c r="N97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0166359166932442</v>
       </c>
       <c r="O97">
@@ -5352,10 +5372,10 @@
         <v>8.4851267687551194E-3</v>
       </c>
       <c r="E98">
+        <v>4.3583015267175701E-2</v>
+      </c>
+      <c r="F98">
         <v>0.106111457986947</v>
-      </c>
-      <c r="F98">
-        <v>4.3583015267175701E-2</v>
       </c>
       <c r="G98">
         <v>7.4220572876158002E-3</v>
@@ -5373,15 +5393,15 @@
         <v>7.7280000000000005E-3</v>
       </c>
       <c r="L98">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L98:L129" si="8">AVERAGE(C98,D98)</f>
         <v>2.9504932391710807E-2</v>
       </c>
       <c r="M98">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M98:M129" si="9">AVERAGE(F98,E98)</f>
         <v>7.4847236627061359E-2</v>
       </c>
       <c r="N98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0748472366270614</v>
       </c>
       <c r="O98">
@@ -5403,10 +5423,10 @@
         <v>0.12191553543579101</v>
       </c>
       <c r="E99">
+        <v>4.0589449943234199E-2</v>
+      </c>
+      <c r="F99">
         <v>6.3244679259792297E-2</v>
-      </c>
-      <c r="F99">
-        <v>4.0589449943234199E-2</v>
       </c>
       <c r="G99">
         <v>-4.6755871166974704E-3</v>
@@ -5424,15 +5444,15 @@
         <v>-2.4889999999999999E-3</v>
       </c>
       <c r="L99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>9.5427141891075262E-2</v>
       </c>
       <c r="M99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>5.1917064601513248E-2</v>
       </c>
       <c r="N99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0519170646015132</v>
       </c>
       <c r="O99">
@@ -5454,10 +5474,10 @@
         <v>-7.5561991091256095E-2</v>
       </c>
       <c r="E100">
+        <v>3.13323765450177E-2</v>
+      </c>
+      <c r="F100">
         <v>-5.1867889786384597E-2</v>
-      </c>
-      <c r="F100">
-        <v>3.13323765450177E-2</v>
       </c>
       <c r="G100">
         <v>3.8861492664499201E-3</v>
@@ -5475,15 +5495,15 @@
         <v>3.4220000000000001E-3</v>
       </c>
       <c r="L100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-7.1804205371366447E-2</v>
       </c>
       <c r="M100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-1.0267756620683448E-2</v>
       </c>
       <c r="N100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.98973224337931653</v>
       </c>
       <c r="O100">
@@ -5505,10 +5525,10 @@
         <v>7.2517542442526006E-2</v>
       </c>
       <c r="E101">
+        <v>-7.4974972842871699E-3</v>
+      </c>
+      <c r="F101">
         <v>2.6203590460595099E-2</v>
-      </c>
-      <c r="F101">
-        <v>-7.4974972842871699E-3</v>
       </c>
       <c r="G101">
         <v>9.7276126045930901E-4</v>
@@ -5526,15 +5546,15 @@
         <v>2.2339999999999999E-3</v>
       </c>
       <c r="L101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7.1139635973743759E-2</v>
       </c>
       <c r="M101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>9.353046588153965E-3</v>
       </c>
       <c r="N101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0093530465881539</v>
       </c>
       <c r="O101">
@@ -5556,10 +5576,10 @@
         <v>2.4273884623801801E-2</v>
       </c>
       <c r="E102">
+        <v>-6.2650671359386595E-2</v>
+      </c>
+      <c r="F102">
         <v>-0.11684201494154101</v>
-      </c>
-      <c r="F102">
-        <v>-6.2650671359386595E-2</v>
       </c>
       <c r="G102">
         <v>1.86473403831489E-2</v>
@@ -5577,15 +5597,15 @@
         <v>1.5789000000000001E-2</v>
       </c>
       <c r="L102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.3257400837419355E-2</v>
       </c>
       <c r="M102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-8.97463431504638E-2</v>
       </c>
       <c r="N102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.91025365684953619</v>
       </c>
       <c r="O102">
@@ -5607,10 +5627,10 @@
         <v>-7.5295323707178605E-2</v>
       </c>
       <c r="E103">
+        <v>3.95549212793724E-2</v>
+      </c>
+      <c r="F103">
         <v>4.3583516912942398E-2</v>
-      </c>
-      <c r="F103">
-        <v>3.95549212793724E-2</v>
       </c>
       <c r="G103">
         <v>4.4537503483310604E-3</v>
@@ -5628,15 +5648,15 @@
         <v>3.3769999999999998E-3</v>
       </c>
       <c r="L103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-7.0023664972080554E-2</v>
       </c>
       <c r="M103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.1569219096157399E-2</v>
       </c>
       <c r="N103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0415692190961574</v>
       </c>
       <c r="O103">
@@ -5658,10 +5678,10 @@
         <v>-8.98231471651256E-2</v>
       </c>
       <c r="E104">
+        <v>1.25976390438713E-2</v>
+      </c>
+      <c r="F104">
         <v>1.8277948261087501E-2</v>
-      </c>
-      <c r="F104">
-        <v>1.25976390438713E-2</v>
       </c>
       <c r="G104">
         <v>4.5661116225514898E-3</v>
@@ -5679,15 +5699,15 @@
         <v>3.3270000000000001E-3</v>
       </c>
       <c r="L104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-7.1050948918724655E-2</v>
       </c>
       <c r="M104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.54377936524794E-2</v>
       </c>
       <c r="N104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0154377936524794</v>
       </c>
       <c r="O104">
@@ -5709,10 +5729,10 @@
         <v>-6.2332393852605498E-3</v>
       </c>
       <c r="E105">
+        <v>1.97633616564683E-2</v>
+      </c>
+      <c r="F105">
         <v>-1.58732644299764E-2</v>
-      </c>
-      <c r="F105">
-        <v>1.97633616564683E-2</v>
       </c>
       <c r="G105">
         <v>-5.4396163821117697E-3</v>
@@ -5730,15 +5750,15 @@
         <v>-4.1970000000000002E-3</v>
       </c>
       <c r="L105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-3.0561600707854974E-2</v>
       </c>
       <c r="M105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.9450486132459501E-3</v>
       </c>
       <c r="N105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.001945048613246</v>
       </c>
       <c r="O105">
@@ -5760,10 +5780,10 @@
         <v>1.9191591017677902E-2</v>
       </c>
       <c r="E106">
+        <v>2.4236090375236601E-2</v>
+      </c>
+      <c r="F106">
         <v>6.9693577387377706E-2</v>
-      </c>
-      <c r="F106">
-        <v>2.4236090375236601E-2</v>
       </c>
       <c r="G106">
         <v>-7.8014520026281598E-4</v>
@@ -5781,15 +5801,15 @@
         <v>-7.6899999999999994E-4</v>
       </c>
       <c r="L106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2.960561015533935E-2</v>
       </c>
       <c r="M106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.696483388130715E-2</v>
       </c>
       <c r="N106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0469648338813071</v>
       </c>
       <c r="O106">
@@ -5811,10 +5831,10 @@
         <v>-9.8929542039507493E-3</v>
       </c>
       <c r="E107">
+        <v>-1.9789403541407801E-2</v>
+      </c>
+      <c r="F107">
         <v>3.8456112604472702E-2</v>
-      </c>
-      <c r="F107">
-        <v>-1.9789403541407801E-2</v>
       </c>
       <c r="G107">
         <v>1.50509370792817E-3</v>
@@ -5832,15 +5852,15 @@
         <v>1.9729999999999999E-3</v>
       </c>
       <c r="L107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-1.3294543000368173E-2</v>
       </c>
       <c r="M107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>9.3333545315324503E-3</v>
       </c>
       <c r="N107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0093333545315324</v>
       </c>
       <c r="O107">
@@ -5862,10 +5882,10 @@
         <v>-0.11094136322214899</v>
       </c>
       <c r="E108">
+        <v>2.8467029231815698E-3</v>
+      </c>
+      <c r="F108">
         <v>1.79545897711006E-2</v>
-      </c>
-      <c r="F108">
-        <v>2.8467029231815698E-3</v>
       </c>
       <c r="G108">
         <v>2.0118891312088699E-3</v>
@@ -5883,15 +5903,15 @@
         <v>3.0919999999999997E-3</v>
       </c>
       <c r="L108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-8.1006866317614293E-2</v>
       </c>
       <c r="M108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.0400646347141084E-2</v>
       </c>
       <c r="N108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0104006463471411</v>
       </c>
       <c r="O108">
@@ -5913,10 +5933,10 @@
         <v>0.163044836655514</v>
       </c>
       <c r="E109">
+        <v>7.0683105254980604E-3</v>
+      </c>
+      <c r="F109">
         <v>2.8439351277939302E-2</v>
-      </c>
-      <c r="F109">
-        <v>7.0683105254980604E-3</v>
       </c>
       <c r="G109">
         <v>2.25978505668545E-3</v>
@@ -5934,15 +5954,15 @@
         <v>2.4099999999999998E-3</v>
       </c>
       <c r="L109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.17109057889151</v>
       </c>
       <c r="M109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.7753830901718681E-2</v>
       </c>
       <c r="N109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0177538309017187</v>
       </c>
       <c r="O109">
@@ -5964,10 +5984,10 @@
         <v>6.2205955077445203E-2</v>
       </c>
       <c r="E110">
+        <v>5.0428063581991103E-2</v>
+      </c>
+      <c r="F110">
         <v>4.7341386207833999E-2</v>
-      </c>
-      <c r="F110">
-        <v>5.0428063581991103E-2</v>
       </c>
       <c r="G110">
         <v>5.0688975355601702E-3</v>
@@ -5985,15 +6005,15 @@
         <v>5.4800000000000005E-3</v>
       </c>
       <c r="L110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6.3590714126656053E-2</v>
       </c>
       <c r="M110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.8884724894912551E-2</v>
       </c>
       <c r="N110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0488847248949125</v>
       </c>
       <c r="O110">
@@ -6015,10 +6035,10 @@
         <v>3.6946659393879401E-2</v>
       </c>
       <c r="E111">
+        <v>1.10606030264802E-2</v>
+      </c>
+      <c r="F111">
         <v>-2.98893404125576E-2</v>
-      </c>
-      <c r="F111">
-        <v>1.10606030264802E-2</v>
       </c>
       <c r="G111">
         <v>5.1838853096379802E-3</v>
@@ -6036,15 +6056,15 @@
         <v>4.9779999999999998E-3</v>
       </c>
       <c r="L111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.5950889187829154E-2</v>
       </c>
       <c r="M111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-9.4143686930386987E-3</v>
       </c>
       <c r="N111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99058563130696131</v>
       </c>
       <c r="O111">
@@ -6066,10 +6086,10 @@
         <v>-4.4596764202861398E-2</v>
       </c>
       <c r="E112">
+        <v>3.59877994031743E-2</v>
+      </c>
+      <c r="F112">
         <v>-3.1304585046135397E-2</v>
-      </c>
-      <c r="F112">
-        <v>3.59877994031743E-2</v>
       </c>
       <c r="G112">
         <v>3.89185335979092E-3</v>
@@ -6087,15 +6107,15 @@
         <v>3.4910000000000002E-3</v>
       </c>
       <c r="L112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-5.56358675643015E-2</v>
       </c>
       <c r="M112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.3416071785194517E-3</v>
       </c>
       <c r="N112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0023416071785194</v>
       </c>
       <c r="O112">
@@ -6117,10 +6137,10 @@
         <v>-2.30671383422025E-2</v>
       </c>
       <c r="E113">
+        <v>1.8085763992887999E-2</v>
+      </c>
+      <c r="F113">
         <v>1.9613778345201099E-2</v>
-      </c>
-      <c r="F113">
-        <v>1.8085763992887999E-2</v>
       </c>
       <c r="G113">
         <v>8.0204940110868393E-3</v>
@@ -6138,15 +6158,15 @@
         <v>6.7600000000000004E-3</v>
       </c>
       <c r="L113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-2.1107799767838949E-2</v>
       </c>
       <c r="M113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.884977116904455E-2</v>
       </c>
       <c r="N113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0188497711690445</v>
       </c>
       <c r="O113">
@@ -6168,10 +6188,10 @@
         <v>0.14058340157837601</v>
       </c>
       <c r="E114">
+        <v>2.07627834774065E-2</v>
+      </c>
+      <c r="F114">
         <v>-1.5166901892553101E-2</v>
-      </c>
-      <c r="F114">
-        <v>2.07627834774065E-2</v>
       </c>
       <c r="G114">
         <v>5.6178329280600599E-3</v>
@@ -6189,15 +6209,15 @@
         <v>5.6249999999999998E-3</v>
       </c>
       <c r="L114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.10280091704575745</v>
       </c>
       <c r="M114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.7979407924266994E-3</v>
       </c>
       <c r="N114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0027979407924268</v>
       </c>
       <c r="O114">
@@ -6219,10 +6239,10 @@
         <v>-0.15756460580992801</v>
       </c>
       <c r="E115">
+        <v>-1.49993254596074E-2</v>
+      </c>
+      <c r="F115">
         <v>-7.0956531214496396E-2</v>
-      </c>
-      <c r="F115">
-        <v>-1.49993254596074E-2</v>
       </c>
       <c r="G115">
         <v>-3.8022070987103799E-3</v>
@@ -6240,15 +6260,15 @@
         <v>-3.1310000000000001E-3</v>
       </c>
       <c r="L115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-0.15662587107072051</v>
       </c>
       <c r="M115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-4.2977928337051899E-2</v>
       </c>
       <c r="N115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.95702207166294806</v>
       </c>
       <c r="O115">
@@ -6270,10 +6290,10 @@
         <v>6.0187368393728201E-2</v>
       </c>
       <c r="E116">
+        <v>4.9462111213487203E-2</v>
+      </c>
+      <c r="F116">
         <v>5.1932651037408101E-2</v>
-      </c>
-      <c r="F116">
-        <v>4.9462111213487203E-2</v>
       </c>
       <c r="G116">
         <v>-4.8302286853652001E-3</v>
@@ -6291,15 +6311,15 @@
         <v>-3.202E-3</v>
       </c>
       <c r="L116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2.8362823296916424E-2</v>
       </c>
       <c r="M116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>5.0697381125447652E-2</v>
       </c>
       <c r="N116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0506973811254476</v>
       </c>
       <c r="O116">
@@ -6321,10 +6341,10 @@
         <v>6.8033367699066996E-2</v>
       </c>
       <c r="E117">
+        <v>-3.1298013323604601E-2</v>
+      </c>
+      <c r="F117">
         <v>-6.9590735736161403E-3</v>
-      </c>
-      <c r="F117">
-        <v>-3.1298013323604601E-2</v>
       </c>
       <c r="G117">
         <v>-8.1664543524415708E-3</v>
@@ -6342,15 +6362,15 @@
         <v>-7.045E-3</v>
       </c>
       <c r="L117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6.1578891416173245E-2</v>
       </c>
       <c r="M117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-1.9128543448610369E-2</v>
       </c>
       <c r="N117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.98087145655138963</v>
       </c>
       <c r="O117">
@@ -6372,10 +6392,10 @@
         <v>5.6969587472994999E-2</v>
       </c>
       <c r="E118">
+        <v>2.9749474883188399E-2</v>
+      </c>
+      <c r="F118">
         <v>5.1929077642136799E-2</v>
-      </c>
-      <c r="F118">
-        <v>2.9749474883188399E-2</v>
       </c>
       <c r="G118">
         <v>1.72482883574054E-3</v>
@@ -6393,15 +6413,15 @@
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="L118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.904026045732935E-2</v>
       </c>
       <c r="M118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.0839276262662601E-2</v>
       </c>
       <c r="N118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0408392762626626</v>
       </c>
       <c r="O118">
@@ -6423,10 +6443,10 @@
         <v>-4.1071106276367599E-2</v>
       </c>
       <c r="E119">
+        <v>4.4595759864410903E-2</v>
+      </c>
+      <c r="F119">
         <v>1.51580105914908E-2</v>
-      </c>
-      <c r="F119">
-        <v>4.4595759864410903E-2</v>
       </c>
       <c r="G119">
         <v>-6.63100317087373E-3</v>
@@ -6444,15 +6464,15 @@
         <v>-5.8620000000000009E-3</v>
       </c>
       <c r="L119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-2.7866075666480399E-2</v>
       </c>
       <c r="M119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.9876885227950851E-2</v>
       </c>
       <c r="N119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.029876885227951</v>
       </c>
       <c r="O119">
@@ -6474,10 +6494,10 @@
         <v>6.2618391961503803E-2</v>
       </c>
       <c r="E120">
+        <v>2.80494608719415E-2</v>
+      </c>
+      <c r="F120">
         <v>2.9083393912964401E-2</v>
-      </c>
-      <c r="F120">
-        <v>2.80494608719415E-2</v>
       </c>
       <c r="G120">
         <v>-1.38413520977836E-2</v>
@@ -6495,15 +6515,15 @@
         <v>-8.9800000000000001E-3</v>
       </c>
       <c r="L120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.5048401733078003E-2</v>
       </c>
       <c r="M120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.856642739245295E-2</v>
       </c>
       <c r="N120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0285664273924529</v>
       </c>
       <c r="O120">
@@ -6525,10 +6545,10 @@
         <v>-2.9720125998921001E-2</v>
       </c>
       <c r="E121">
+        <v>2.35628332991842E-2</v>
+      </c>
+      <c r="F121">
         <v>-2.4073238924697999E-2</v>
-      </c>
-      <c r="F121">
-        <v>2.35628332991842E-2</v>
       </c>
       <c r="G121">
         <v>-2.7530960114311399E-3</v>
@@ -6546,15 +6566,15 @@
         <v>-2.6490000000000003E-3</v>
       </c>
       <c r="L121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-3.7188988960860252E-2</v>
       </c>
       <c r="M121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-2.5520281275689949E-4</v>
       </c>
       <c r="N121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99974479718724307</v>
       </c>
       <c r="O121">
@@ -6576,10 +6596,10 @@
         <v>1.47084324864146E-2</v>
       </c>
       <c r="E122">
+        <v>-3.55828951070137E-2</v>
+      </c>
+      <c r="F122">
         <v>-5.4533113021793603E-2</v>
-      </c>
-      <c r="F122">
-        <v>-3.55828951070137E-2</v>
       </c>
       <c r="G122">
         <v>8.8812669524893605E-3</v>
@@ -6597,15 +6617,15 @@
         <v>9.6819999999999996E-3</v>
       </c>
       <c r="L122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-2.0022302302079298E-2</v>
       </c>
       <c r="M122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-4.5058004064403648E-2</v>
       </c>
       <c r="N122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.95494199593559637</v>
       </c>
       <c r="O122">
@@ -6627,10 +6647,10 @@
         <v>2.3295575042672399E-2</v>
       </c>
       <c r="E123">
+        <v>4.3117037568930698E-2</v>
+      </c>
+      <c r="F123">
         <v>3.6375072496916301E-2</v>
-      </c>
-      <c r="F123">
-        <v>4.3117037568930698E-2</v>
       </c>
       <c r="G123">
         <v>1.66847867187765E-2</v>
@@ -6648,15 +6668,15 @@
         <v>1.6111E-2</v>
       </c>
       <c r="L123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6.3175870627559996E-3</v>
       </c>
       <c r="M123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3.97460550329235E-2</v>
       </c>
       <c r="N123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0397460550329236</v>
       </c>
       <c r="O123">
@@ -6678,10 +6698,10 @@
         <v>-3.4053173484737798E-2</v>
       </c>
       <c r="E124">
+        <v>6.9321573583585004E-3</v>
+      </c>
+      <c r="F124">
         <v>-3.00346455920577E-2</v>
-      </c>
-      <c r="F124">
-        <v>6.9321573583585004E-3</v>
       </c>
       <c r="G124">
         <v>8.9807221565196805E-4</v>
@@ -6699,15 +6719,15 @@
         <v>-1.348E-3</v>
       </c>
       <c r="L124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-2.4522326704029748E-2</v>
       </c>
       <c r="M124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-1.15512441168496E-2</v>
       </c>
       <c r="N124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.9884487558831504</v>
       </c>
       <c r="O124">
@@ -6729,10 +6749,10 @@
         <v>-1.93634430194118E-2</v>
       </c>
       <c r="E125">
+        <v>6.2007968638175797E-3</v>
+      </c>
+      <c r="F125">
         <v>-7.7152064054719605E-4</v>
-      </c>
-      <c r="F125">
-        <v>6.2007968638175797E-3</v>
       </c>
       <c r="G125">
         <v>9.0476635278251595E-3</v>
@@ -6750,15 +6770,15 @@
         <v>1.0048E-2</v>
       </c>
       <c r="L125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-6.8037521623856897E-3</v>
       </c>
       <c r="M125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.7146381116351917E-3</v>
       </c>
       <c r="N125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0027146381116352</v>
       </c>
       <c r="O125">
@@ -6780,10 +6800,10 @@
         <v>1.67459249051423E-2</v>
       </c>
       <c r="E126">
+        <v>2.1030282120013701E-2</v>
+      </c>
+      <c r="F126">
         <v>4.2815635875534303E-2</v>
-      </c>
-      <c r="F126">
-        <v>2.1030282120013701E-2</v>
       </c>
       <c r="G126">
         <v>1.22044911067762E-2</v>
@@ -6801,15 +6821,15 @@
         <v>1.5143999999999999E-2</v>
       </c>
       <c r="L126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7.8645449581915203E-3</v>
       </c>
       <c r="M126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3.1922958997774004E-2</v>
       </c>
       <c r="N126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0319229589977741</v>
       </c>
       <c r="O126">
@@ -6831,10 +6851,10 @@
         <v>2.4982777252288799E-2</v>
       </c>
       <c r="E127">
+        <v>1.90583134484319E-2</v>
+      </c>
+      <c r="F127">
         <v>4.7253987474897797E-3</v>
-      </c>
-      <c r="F127">
-        <v>1.90583134484319E-2</v>
       </c>
       <c r="G127">
         <v>7.8644387316764205E-3</v>
@@ -6852,15 +6872,15 @@
         <v>7.2840000000000005E-3</v>
       </c>
       <c r="L127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.4497914123439919E-2</v>
       </c>
       <c r="M127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.189185609796084E-2</v>
       </c>
       <c r="N127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0118918560979608</v>
       </c>
       <c r="O127">
@@ -6882,10 +6902,10 @@
         <v>8.4624256956159299E-2</v>
       </c>
       <c r="E128">
+        <v>-1.5079863077291899E-2</v>
+      </c>
+      <c r="F128">
         <v>6.7532616494873701E-2</v>
-      </c>
-      <c r="F128">
-        <v>-1.5079863077291899E-2</v>
       </c>
       <c r="G128">
         <v>-2.15592897025418E-3</v>
@@ -6903,15 +6923,15 @@
         <v>-1.926E-3</v>
       </c>
       <c r="L128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>8.506568740650769E-2</v>
       </c>
       <c r="M128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.62263767087909E-2</v>
       </c>
       <c r="N128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0262263767087909</v>
       </c>
       <c r="O128">
@@ -6933,10 +6953,10 @@
         <v>4.0129714391085702E-2</v>
       </c>
       <c r="E129">
+        <v>3.7655321727690302E-2</v>
+      </c>
+      <c r="F129">
         <v>-5.9741041368333004E-4</v>
-      </c>
-      <c r="F129">
-        <v>3.7655321727690302E-2</v>
       </c>
       <c r="G129">
         <v>8.1146471870883197E-3</v>
@@ -6954,15 +6974,15 @@
         <v>6.9299999999999995E-3</v>
       </c>
       <c r="L129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.7519597136085308E-2</v>
       </c>
       <c r="M129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.8528955657003486E-2</v>
       </c>
       <c r="N129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0185289556570034</v>
       </c>
       <c r="O129">
@@ -6984,10 +7004,10 @@
         <v>0.11026498239902199</v>
       </c>
       <c r="E130">
+        <v>-1.55138591473367E-2</v>
+      </c>
+      <c r="F130">
         <v>-7.3117598130471001E-2</v>
-      </c>
-      <c r="F130">
-        <v>-1.55138591473367E-2</v>
       </c>
       <c r="G130">
         <v>9.5788669704233199E-3</v>
@@ -7005,15 +7025,15 @@
         <v>1.1428000000000001E-2</v>
       </c>
       <c r="L130">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L130:L165" si="10">AVERAGE(C130,D130)</f>
         <v>7.9231543197832849E-2</v>
       </c>
       <c r="M130">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M130:M165" si="11">AVERAGE(F130,E130)</f>
         <v>-4.4315728638903852E-2</v>
       </c>
       <c r="N130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.95568427136109613</v>
       </c>
       <c r="O130">
@@ -7035,10 +7055,10 @@
         <v>1.4299287710488801E-2</v>
       </c>
       <c r="E131">
+        <v>2.3201456175308902E-2</v>
+      </c>
+      <c r="F131">
         <v>4.6443157409111299E-2</v>
-      </c>
-      <c r="F131">
-        <v>2.3201456175308902E-2</v>
       </c>
       <c r="G131">
         <v>1.6854408898929502E-2</v>
@@ -7056,15 +7076,15 @@
         <v>1.8268E-2</v>
       </c>
       <c r="L131">
-        <f t="shared" ref="L131:L165" si="6">AVERAGE(C131,D131)</f>
+        <f t="shared" si="10"/>
         <v>1.88463555486513E-2</v>
       </c>
       <c r="M131">
-        <f t="shared" ref="M131:M165" si="7">AVERAGE(E131,F131)</f>
+        <f t="shared" si="11"/>
         <v>3.48223067922101E-2</v>
       </c>
       <c r="N131">
-        <f t="shared" ref="N131:N165" si="8">1+M131</f>
+        <f t="shared" ref="N131:N165" si="12">1+M131</f>
         <v>1.03482230679221</v>
       </c>
       <c r="O131">
@@ -7086,10 +7106,10 @@
         <v>5.19112324362829E-2</v>
       </c>
       <c r="E132">
+        <v>2.4533584400783001E-2</v>
+      </c>
+      <c r="F132">
         <v>-4.42119071291658E-4</v>
-      </c>
-      <c r="F132">
-        <v>2.4533584400783001E-2</v>
       </c>
       <c r="G132">
         <v>1.7460784747596499E-2</v>
@@ -7107,15 +7127,15 @@
         <v>1.2861000000000001E-2</v>
       </c>
       <c r="L132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8.5854951431879448E-2</v>
       </c>
       <c r="M132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.2045732664745672E-2</v>
       </c>
       <c r="N132">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0120457326647456</v>
       </c>
       <c r="O132">
@@ -7137,10 +7157,10 @@
         <v>1.47651206316095E-2</v>
       </c>
       <c r="E133">
+        <v>-4.1885120625277904E-3</v>
+      </c>
+      <c r="F133">
         <v>-1.59420863826709E-2</v>
-      </c>
-      <c r="F133">
-        <v>-4.1885120625277904E-3</v>
       </c>
       <c r="G133">
         <v>-2.0014183279488699E-3</v>
@@ -7158,15 +7178,15 @@
         <v>-5.3629999999999997E-3</v>
       </c>
       <c r="L133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.13642006682654825</v>
       </c>
       <c r="M133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-1.0065299222599345E-2</v>
       </c>
       <c r="N133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.98993470077740064</v>
       </c>
       <c r="O133">
@@ -7188,10 +7208,10 @@
         <v>5.82435952786493E-2</v>
       </c>
       <c r="E134">
+        <v>-3.1040847054252401E-2</v>
+      </c>
+      <c r="F134">
         <v>3.8212602054476401E-2</v>
-      </c>
-      <c r="F134">
-        <v>-3.1040847054252401E-2</v>
       </c>
       <c r="G134">
         <v>1.09518696311268E-2</v>
@@ -7209,15 +7229,15 @@
         <v>1.0733999999999999E-2</v>
       </c>
       <c r="L134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.5069266372566401E-2</v>
       </c>
       <c r="M134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.5858775001119999E-3</v>
       </c>
       <c r="N134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0035858775001121</v>
       </c>
       <c r="O134">
@@ -7239,10 +7259,10 @@
         <v>6.84810273103902E-2</v>
       </c>
       <c r="E135">
+        <v>5.4892505726845703E-2</v>
+      </c>
+      <c r="F135">
         <v>1.2904041898147599E-2</v>
-      </c>
-      <c r="F135">
-        <v>5.4892505726845703E-2</v>
       </c>
       <c r="G135">
         <v>7.7248976750956501E-3</v>
@@ -7260,15 +7280,15 @@
         <v>8.6580000000000008E-3</v>
       </c>
       <c r="L135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5.43973682931366E-2</v>
       </c>
       <c r="M135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.3898273812496653E-2</v>
       </c>
       <c r="N135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0338982738124967</v>
       </c>
       <c r="O135">
@@ -7290,10 +7310,10 @@
         <v>0.20514224312752299</v>
       </c>
       <c r="E136">
+        <v>-1.73960560703256E-2</v>
+      </c>
+      <c r="F136">
         <v>3.1260965005039899E-3</v>
-      </c>
-      <c r="F136">
-        <v>-1.73960560703256E-2</v>
       </c>
       <c r="G136">
         <v>-9.1797212851610892E-3</v>
@@ -7311,15 +7331,15 @@
         <v>-1.1854E-2</v>
       </c>
       <c r="L136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.16951514905111548</v>
       </c>
       <c r="M136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-7.1349797849108044E-3</v>
       </c>
       <c r="N136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.99286502021508916</v>
       </c>
       <c r="O136">
@@ -7341,10 +7361,10 @@
         <v>0.167730808768219</v>
       </c>
       <c r="E137">
+        <v>8.5207627098153899E-3</v>
+      </c>
+      <c r="F137">
         <v>0.129798975056715</v>
-      </c>
-      <c r="F137">
-        <v>8.5207627098153899E-3</v>
       </c>
       <c r="G137">
         <v>1.35423569407864E-2</v>
@@ -7362,15 +7382,15 @@
         <v>1.512E-2</v>
       </c>
       <c r="L137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.1700968062093445</v>
       </c>
       <c r="M137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.9159868883265196E-2</v>
       </c>
       <c r="N137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0691598688832653</v>
       </c>
       <c r="O137">
@@ -7392,10 +7412,10 @@
         <v>0.176768571820895</v>
       </c>
       <c r="E138">
+        <v>1.04914385450081E-2</v>
+      </c>
+      <c r="F138">
         <v>-2.51949667650091E-2</v>
-      </c>
-      <c r="F138">
-        <v>1.04914385450081E-2</v>
       </c>
       <c r="G138">
         <v>4.1457296515057303E-3</v>
@@ -7413,15 +7433,15 @@
         <v>5.4619999999999998E-3</v>
       </c>
       <c r="L138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9.7957463035119499E-2</v>
       </c>
       <c r="M138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-7.3517641100005002E-3</v>
       </c>
       <c r="N138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.99264823588999951</v>
       </c>
       <c r="O138">
@@ -7443,10 +7463,10 @@
         <v>-0.10643536645748999</v>
       </c>
       <c r="E139">
+        <v>-2.10117728564716E-2</v>
+      </c>
+      <c r="F139">
         <v>-4.2814755877931203E-2</v>
-      </c>
-      <c r="F139">
-        <v>-2.10117728564716E-2</v>
       </c>
       <c r="G139">
         <v>4.2878556663761298E-3</v>
@@ -7464,15 +7484,15 @@
         <v>2.7569999999999999E-3</v>
       </c>
       <c r="L139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-9.1210287388073893E-2</v>
       </c>
       <c r="M139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-3.1913264367201405E-2</v>
       </c>
       <c r="N139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.96808673563279857</v>
       </c>
       <c r="O139">
@@ -7494,10 +7514,10 @@
         <v>-0.132377804397973</v>
       </c>
       <c r="E140">
+        <v>1.9742039930008601E-2</v>
+      </c>
+      <c r="F140">
         <v>-6.1476120217767397E-2</v>
-      </c>
-      <c r="F140">
-        <v>1.9742039930008601E-2</v>
       </c>
       <c r="G140">
         <v>1.2162764443856699E-2</v>
@@ -7515,15 +7535,15 @@
         <v>9.4369999999999992E-3</v>
       </c>
       <c r="L140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-0.13955114813446401</v>
       </c>
       <c r="M140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-2.0867040143879398E-2</v>
       </c>
       <c r="N140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.97913295985612059</v>
       </c>
       <c r="O140">
@@ -7545,10 +7565,10 @@
         <v>-0.14827735016657301</v>
       </c>
       <c r="E141">
+        <v>-6.2580804623925804E-2</v>
+      </c>
+      <c r="F141">
         <v>-0.12037937545765801</v>
-      </c>
-      <c r="F141">
-        <v>-6.2580804623925804E-2</v>
       </c>
       <c r="G141">
         <v>7.8407059841105707E-3</v>
@@ -7566,15 +7586,15 @@
         <v>6.6949999999999996E-3</v>
       </c>
       <c r="L141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-0.13311154203143749</v>
       </c>
       <c r="M141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-9.1480090040791912E-2</v>
       </c>
       <c r="N141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.90851990995920806</v>
       </c>
       <c r="O141">
@@ -7596,10 +7616,10 @@
         <v>-6.9527968181788496E-2</v>
       </c>
       <c r="E142">
+        <v>-2.6442819620927101E-2</v>
+      </c>
+      <c r="F142">
         <v>-3.8036822272408101E-2</v>
-      </c>
-      <c r="F142">
-        <v>-2.6442819620927101E-2</v>
       </c>
       <c r="G142">
         <v>5.4583383845718796E-3</v>
@@ -7617,15 +7637,15 @@
         <v>4.7739999999999996E-3</v>
       </c>
       <c r="L142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-5.9060234726451048E-2</v>
       </c>
       <c r="M142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-3.2239820946667601E-2</v>
       </c>
       <c r="N142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.96776017905333245</v>
       </c>
       <c r="O142">
@@ -7647,10 +7667,10 @@
         <v>0.156970279245285</v>
       </c>
       <c r="E143">
+        <v>8.2983078389400305E-2</v>
+      </c>
+      <c r="F143">
         <v>8.6045964991389404E-2</v>
-      </c>
-      <c r="F143">
-        <v>8.2983078389400305E-2</v>
       </c>
       <c r="G143">
         <v>1.1509813155794701E-2</v>
@@ -7668,15 +7688,15 @@
         <v>1.1198E-2</v>
       </c>
       <c r="L143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.13017679238935201</v>
       </c>
       <c r="M143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8.4514521690394862E-2</v>
       </c>
       <c r="N143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0845145216903949</v>
       </c>
       <c r="O143">
@@ -7698,10 +7718,10 @@
         <v>4.5649900085682898E-2</v>
       </c>
       <c r="E144">
+        <v>5.0496306555847205E-4</v>
+      </c>
+      <c r="F144">
         <v>-2.84283950028358E-2</v>
-      </c>
-      <c r="F144">
-        <v>5.0496306555847205E-4</v>
       </c>
       <c r="G144">
         <v>-1.02676917048905E-4</v>
@@ -7719,15 +7739,15 @@
         <v>8.3000000000000001E-4</v>
       </c>
       <c r="L144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.7399466038353512E-2</v>
       </c>
       <c r="M144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-1.3961715968638664E-2</v>
       </c>
       <c r="N144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.98603828403136129</v>
       </c>
       <c r="O144">
@@ -7749,10 +7769,10 @@
         <v>2.8250396023497E-2</v>
       </c>
       <c r="E145">
+        <v>-1.7530198374358801E-2</v>
+      </c>
+      <c r="F145">
         <v>-3.7287885937801199E-3</v>
-      </c>
-      <c r="F145">
-        <v>-1.7530198374358801E-2</v>
       </c>
       <c r="G145">
         <v>1.59531461903544E-2</v>
@@ -7770,15 +7790,15 @@
         <v>1.5111000000000001E-2</v>
       </c>
       <c r="L145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.7200559295001101E-2</v>
       </c>
       <c r="M145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-1.062949348406946E-2</v>
       </c>
       <c r="N145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.9893705065159305</v>
       </c>
       <c r="O145">
@@ -7800,10 +7820,10 @@
         <v>-0.28204926717276102</v>
       </c>
       <c r="E146">
+        <v>-5.0735344481736201E-2</v>
+      </c>
+      <c r="F146">
         <v>-0.101818439017267</v>
-      </c>
-      <c r="F146">
-        <v>-5.0735344481736201E-2</v>
       </c>
       <c r="G146">
         <v>2.2288779397427998E-3</v>
@@ -7821,15 +7841,15 @@
         <v>2.0150000000000003E-3</v>
       </c>
       <c r="L146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-0.24621272139554351</v>
       </c>
       <c r="M146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-7.6276891749501599E-2</v>
       </c>
       <c r="N146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.92372310825049841</v>
       </c>
       <c r="O146">
@@ -7851,10 +7871,10 @@
         <v>-2.1702135409072999E-2</v>
       </c>
       <c r="E147">
+        <v>-4.1283552550199802E-3</v>
+      </c>
+      <c r="F147">
         <v>-2.9018788189468001E-2</v>
-      </c>
-      <c r="F147">
-        <v>-4.1283552550199802E-3</v>
       </c>
       <c r="G147">
         <v>3.3552982007509801E-3</v>
@@ -7872,15 +7892,15 @@
         <v>2.9949999999999998E-3</v>
       </c>
       <c r="L147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-2.2497622178666299E-2</v>
       </c>
       <c r="M147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-1.6573571722243989E-2</v>
       </c>
       <c r="N147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.98342642827775606</v>
       </c>
       <c r="O147">
@@ -7902,10 +7922,10 @@
         <v>0.150526133984241</v>
       </c>
       <c r="E148">
+        <v>6.5991108718941094E-2</v>
+      </c>
+      <c r="F148">
         <v>8.7106325734763498E-2</v>
-      </c>
-      <c r="F148">
-        <v>6.5991108718941094E-2</v>
       </c>
       <c r="G148">
         <v>6.9313508017931902E-3</v>
@@ -7923,15 +7943,15 @@
         <v>6.391E-3</v>
       </c>
       <c r="L148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.13445077398409749</v>
       </c>
       <c r="M148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7.6548717226852303E-2</v>
       </c>
       <c r="N148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0765487172268524</v>
       </c>
       <c r="O148">
@@ -7953,10 +7973,10 @@
         <v>-2.76518760200316E-2</v>
       </c>
       <c r="E149">
+        <v>2.69936982337593E-3</v>
+      </c>
+      <c r="F149">
         <v>1.39747890665987E-2</v>
-      </c>
-      <c r="F149">
-        <v>2.69936982337593E-3</v>
       </c>
       <c r="G149">
         <v>-7.4401116619119403E-3</v>
@@ -7974,15 +7994,15 @@
         <v>-6.8479999999999999E-3</v>
       </c>
       <c r="L149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-2.3356877174231898E-2</v>
       </c>
       <c r="M149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8.3370794449873151E-3</v>
       </c>
       <c r="N149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0083370794449873</v>
       </c>
       <c r="O149">
@@ -8004,10 +8024,10 @@
         <v>-6.3939518784601503E-3</v>
       </c>
       <c r="E150">
+        <v>1.5329492083474601E-2</v>
+      </c>
+      <c r="F150">
         <v>-1.1959908957352799E-2</v>
-      </c>
-      <c r="F150">
-        <v>1.5329492083474601E-2</v>
       </c>
       <c r="G150">
         <v>3.9453226598851199E-3</v>
@@ -8025,15 +8045,15 @@
         <v>4.2680000000000001E-3</v>
       </c>
       <c r="L150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-1.1672428448474851E-3</v>
       </c>
       <c r="M150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.6847915630609006E-3</v>
       </c>
       <c r="N150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0016847915630609</v>
       </c>
       <c r="O150">
@@ -8055,10 +8075,10 @@
         <v>2.9621985853667501E-2</v>
       </c>
       <c r="E151">
+        <v>9.0607355409733103E-4</v>
+      </c>
+      <c r="F151">
         <v>-9.9543167961324607E-4</v>
-      </c>
-      <c r="F151">
-        <v>9.0607355409733103E-4</v>
       </c>
       <c r="G151">
         <v>7.1872035077054103E-3</v>
@@ -8076,15 +8096,15 @@
         <v>6.8659999999999997E-3</v>
       </c>
       <c r="L151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.2343962647108471E-2</v>
       </c>
       <c r="M151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-4.4679062757957519E-5</v>
       </c>
       <c r="N151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.99995532093724204</v>
       </c>
       <c r="O151">
@@ -8106,10 +8126,10 @@
         <v>1.29661923889564E-2</v>
       </c>
       <c r="E152">
+        <v>3.5609807228685897E-2</v>
+      </c>
+      <c r="F152">
         <v>5.2754663882579801E-2</v>
-      </c>
-      <c r="F152">
-        <v>3.5609807228685897E-2</v>
       </c>
       <c r="G152">
         <v>9.7750162907412896E-3</v>
@@ -8127,15 +8147,15 @@
         <v>8.4240000000000009E-3</v>
       </c>
       <c r="L152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.44112275585803E-2</v>
       </c>
       <c r="M152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.4182235555632846E-2</v>
       </c>
       <c r="N152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0441822355556329</v>
       </c>
       <c r="O152">
@@ -8157,10 +8177,10 @@
         <v>3.72919581402371E-2</v>
       </c>
       <c r="E153">
+        <v>-1.2191755612808201E-3</v>
+      </c>
+      <c r="F153">
         <v>4.9586206802041198E-2</v>
-      </c>
-      <c r="F153">
-        <v>-1.2191755612808201E-3</v>
       </c>
       <c r="G153">
         <v>6.7317233879837799E-3</v>
@@ -8178,15 +8198,15 @@
         <v>4.8859999999999997E-3</v>
       </c>
       <c r="L153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.797589335290065E-2</v>
       </c>
       <c r="M153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.4183515620380187E-2</v>
       </c>
       <c r="N153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0241835156203802</v>
       </c>
       <c r="O153">
@@ -8208,10 +8228,10 @@
         <v>-1.64938189850585E-2</v>
       </c>
       <c r="E154">
+        <v>-1.23448259978343E-3</v>
+      </c>
+      <c r="F154">
         <v>1.3938794126965999E-2</v>
-      </c>
-      <c r="F154">
-        <v>-1.23448259978343E-3</v>
       </c>
       <c r="G154">
         <v>5.3293508459317804E-3</v>
@@ -8229,15 +8249,15 @@
         <v>4.2920000000000007E-3</v>
       </c>
       <c r="L154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-1.9441863939526551E-2</v>
       </c>
       <c r="M154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.3521557635912848E-3</v>
       </c>
       <c r="N154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0063521557635913</v>
       </c>
       <c r="O154">
@@ -8259,10 +8279,10 @@
         <v>1.96141784175612E-2</v>
       </c>
       <c r="E155">
+        <v>-1.9425625037472201E-2</v>
+      </c>
+      <c r="F155">
         <v>-1.5564564764359599E-2</v>
-      </c>
-      <c r="F155">
-        <v>-1.9425625037472201E-2</v>
       </c>
       <c r="G155">
         <v>5.2485246913891396E-3</v>
@@ -8280,15 +8300,15 @@
         <v>4.3619999999999996E-3</v>
       </c>
       <c r="L155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.2562351213508802E-2</v>
       </c>
       <c r="M155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-1.74950949009159E-2</v>
       </c>
       <c r="N155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.98250490509908406</v>
       </c>
       <c r="O155">
@@ -8310,10 +8330,10 @@
         <v>2.0670729380640698E-2</v>
       </c>
       <c r="E156">
+        <v>3.4174446769983199E-2</v>
+      </c>
+      <c r="F156">
         <v>-6.3123132184033101E-3</v>
-      </c>
-      <c r="F156">
-        <v>3.4174446769983199E-2</v>
       </c>
       <c r="G156">
         <v>-8.0164022444592104E-3</v>
@@ -8331,15 +8351,15 @@
         <v>-8.2740000000000001E-3</v>
       </c>
       <c r="L156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4.0567139754135499E-2</v>
       </c>
       <c r="M156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.3931066775789945E-2</v>
       </c>
       <c r="N156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0139310667757899</v>
       </c>
       <c r="O156">
@@ -8361,10 +8381,10 @@
         <v>-4.8887435477185701E-2</v>
       </c>
       <c r="E157">
+        <v>1.8200754044232999E-2</v>
+      </c>
+      <c r="F157">
         <v>-3.4630011623636298E-2</v>
-      </c>
-      <c r="F157">
-        <v>1.8200754044232999E-2</v>
       </c>
       <c r="G157">
         <v>-1.5121932888254801E-2</v>
@@ -8382,15 +8402,15 @@
         <v>-1.1000000000000001E-2</v>
       </c>
       <c r="L157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-5.6654025197522349E-2</v>
       </c>
       <c r="M157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-8.2146287897016494E-3</v>
       </c>
       <c r="N157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.99178537121029831</v>
       </c>
       <c r="O157">
@@ -8412,10 +8432,10 @@
         <v>-6.4000000000000003E-3</v>
       </c>
       <c r="E158">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="F158">
         <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="F158">
-        <v>2.6599999999999999E-2</v>
       </c>
       <c r="G158">
         <v>-7.6499999999999995E-4</v>
@@ -8433,15 +8453,15 @@
         <v>-3.3570000000000002E-3</v>
       </c>
       <c r="L158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8.5500000000000003E-3</v>
       </c>
       <c r="M158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.4499999999999998E-2</v>
       </c>
       <c r="N158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0445</v>
       </c>
       <c r="O158">
@@ -8463,10 +8483,10 @@
         <v>3.6515859999999997E-2</v>
       </c>
       <c r="E159">
+        <v>3.7198299999999997E-2</v>
+      </c>
+      <c r="F159">
         <v>1.6264440000000002E-2</v>
-      </c>
-      <c r="F159">
-        <v>3.7198299999999997E-2</v>
       </c>
       <c r="G159">
         <v>-1.75567E-3</v>
@@ -8484,15 +8504,15 @@
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="L159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.7828539999999999E-2</v>
       </c>
       <c r="M159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.6731369999999997E-2</v>
       </c>
       <c r="N159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.02673137</v>
       </c>
       <c r="O159">
@@ -8514,10 +8534,10 @@
         <v>-7.6457027757731444E-3</v>
       </c>
       <c r="E160">
+        <v>-3.8923017041514463E-4</v>
+      </c>
+      <c r="F160">
         <v>1.5621255117260535E-2</v>
-      </c>
-      <c r="F160">
-        <v>-3.8923017041514463E-4</v>
       </c>
       <c r="G160">
         <v>6.7697219611151382E-4</v>
@@ -8535,15 +8555,15 @@
         <v>1.11E-4</v>
       </c>
       <c r="L160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-3.3543634434431424E-3</v>
       </c>
       <c r="M160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7.6160124734226953E-3</v>
       </c>
       <c r="N160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0076160124734228</v>
       </c>
       <c r="O160">
@@ -8565,10 +8585,10 @@
         <v>-2.9646351000000015E-2</v>
       </c>
       <c r="E161">
+        <v>2.0883733000000015E-2</v>
+      </c>
+      <c r="F161">
         <v>9.0912169999999293E-3</v>
-      </c>
-      <c r="F161">
-        <v>2.0883733000000015E-2</v>
       </c>
       <c r="G161">
         <v>-4.0596569999999943E-3</v>
@@ -8586,15 +8606,15 @@
         <v>-4.6029999999999995E-3</v>
       </c>
       <c r="L161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-1.7180277000000022E-2</v>
       </c>
       <c r="M161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.4987474999999972E-2</v>
       </c>
       <c r="N161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0149874749999999</v>
       </c>
       <c r="O161">
@@ -8616,10 +8636,10 @@
         <v>-6.2399999999999997E-2</v>
       </c>
       <c r="E162">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="F162">
         <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="F162">
-        <v>1.1599999999999999E-2</v>
       </c>
       <c r="G162">
         <v>-6.4999999999999997E-3</v>
@@ -8637,15 +8657,15 @@
         <v>-5.4290000000000007E-3</v>
       </c>
       <c r="L162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-2.35E-2</v>
       </c>
       <c r="M162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.7050000000000001E-2</v>
       </c>
       <c r="N162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.02705</v>
       </c>
       <c r="O162">
@@ -8667,10 +8687,10 @@
         <v>5.3922696000000103E-2</v>
       </c>
       <c r="E163">
+        <v>4.0501699999999641E-3</v>
+      </c>
+      <c r="F163">
         <v>4.8138319999999624E-3</v>
-      </c>
-      <c r="F163">
-        <v>4.0501699999999641E-3</v>
       </c>
       <c r="G163">
         <v>1.2028614000000104E-2</v>
@@ -8688,15 +8708,15 @@
         <v>1.2352E-2</v>
       </c>
       <c r="L163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5.1856703000000004E-2</v>
       </c>
       <c r="M163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.4320009999999632E-3</v>
       </c>
       <c r="N163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0044320010000001</v>
       </c>
       <c r="O163">
@@ -8718,10 +8738,10 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="E164">
+        <v>2.01E-2</v>
+      </c>
+      <c r="F164">
         <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="F164">
-        <v>2.01E-2</v>
       </c>
       <c r="G164">
         <v>3.0000000000000001E-3</v>
@@ -8739,15 +8759,15 @@
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="L164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.2699999999999998E-2</v>
       </c>
       <c r="M164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.0300000000000002E-2</v>
       </c>
       <c r="N164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0403</v>
       </c>
       <c r="O164">
@@ -8769,10 +8789,10 @@
         <v>2.7380000000000002E-2</v>
       </c>
       <c r="E165">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="F165">
         <v>2.3650000000000001E-2</v>
-      </c>
-      <c r="F165">
-        <v>5.1000000000000004E-4</v>
       </c>
       <c r="G165">
         <v>2E-3</v>
@@ -8784,16 +8804,74 @@
         <v>3.3E-3</v>
       </c>
       <c r="L165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.4955000000000001E-2</v>
       </c>
       <c r="M165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.208E-2</v>
       </c>
       <c r="N165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0120800000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>43008</v>
+      </c>
+      <c r="B166">
+        <v>-1.5599999999999999E-2</v>
+      </c>
+      <c r="C166">
+        <v>3.7697930000000213E-3</v>
+      </c>
+      <c r="D166">
+        <v>2.0529220000000015E-2</v>
+      </c>
+      <c r="E166">
+        <v>1.9302895000000042E-2</v>
+      </c>
+      <c r="F166">
+        <v>-1.4872918999999984E-2</v>
+      </c>
+      <c r="G166">
+        <v>4.5077010000000861E-3</v>
+      </c>
+      <c r="H166">
+        <v>-1.6552119999999615E-3</v>
+      </c>
+      <c r="I166">
+        <v>3.1024079999999454E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>43039</v>
+      </c>
+      <c r="B167">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="C167">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="D167">
+        <v>-6.4999999999999997E-3</v>
+      </c>
+      <c r="E167">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="F167">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="G167">
+        <v>-3.3E-3</v>
+      </c>
+      <c r="H167">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="I167">
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
   </sheetData>
